--- a/model/UnmetDemand/Output Files/Output_1_41.xlsx
+++ b/model/UnmetDemand/Output Files/Output_1_41.xlsx
@@ -501,49 +501,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2360228.238128282</v>
+        <v>2381564.833333193</v>
       </c>
       <c r="C2" t="n">
-        <v>2360228.238128281</v>
+        <v>2382345.700472424</v>
       </c>
       <c r="D2" t="n">
-        <v>2360228.238128281</v>
+        <v>2382345.700472424</v>
       </c>
       <c r="E2" t="n">
-        <v>2327583.8251871</v>
+        <v>2378802.435755847</v>
       </c>
       <c r="F2" t="n">
-        <v>2327583.8251871</v>
+        <v>2378802.435755847</v>
       </c>
       <c r="G2" t="n">
-        <v>2360666.340086134</v>
+        <v>2378802.435755847</v>
       </c>
       <c r="H2" t="n">
-        <v>2360666.340086134</v>
+        <v>2377945.736774124</v>
       </c>
       <c r="I2" t="n">
-        <v>2360666.340086134</v>
+        <v>2378802.435755844</v>
       </c>
       <c r="J2" t="n">
-        <v>2318930.797750987</v>
+        <v>2369082.980457568</v>
       </c>
       <c r="K2" t="n">
-        <v>2318930.797750987</v>
+        <v>2369082.980457566</v>
       </c>
       <c r="L2" t="n">
-        <v>2372067.023311467</v>
+        <v>2380121.370925622</v>
       </c>
       <c r="M2" t="n">
-        <v>2372067.023311467</v>
+        <v>2380121.370925621</v>
       </c>
       <c r="N2" t="n">
-        <v>2372067.023311467</v>
+        <v>2380121.370925625</v>
       </c>
       <c r="O2" t="n">
-        <v>2275993.589381436</v>
+        <v>2371513.388153875</v>
       </c>
       <c r="P2" t="n">
-        <v>2275993.589381437</v>
+        <v>2371513.388153856</v>
       </c>
     </row>
     <row r="3">
@@ -553,46 +553,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>311200</v>
+        <v>385088</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>279200</v>
+        <v>297152</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>352800</v>
+        <v>378400</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="J3" t="n">
-        <v>229600</v>
+        <v>263072</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>426400</v>
+        <v>415200</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="O3" t="n">
-        <v>121600</v>
+        <v>223424</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -605,49 +605,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>892664.9157234912</v>
+        <v>905479.4746817492</v>
       </c>
       <c r="C4" t="n">
-        <v>889162.7944239457</v>
+        <v>902174.1909959664</v>
       </c>
       <c r="D4" t="n">
-        <v>885655.9222782705</v>
+        <v>898619.3515580897</v>
       </c>
       <c r="E4" t="n">
-        <v>864117.246006205</v>
+        <v>897849.7983888441</v>
       </c>
       <c r="F4" t="n">
-        <v>860674.2534028012</v>
+        <v>894304.6176073807</v>
       </c>
       <c r="G4" t="n">
-        <v>875346.4203547507</v>
+        <v>890754.5446094498</v>
       </c>
       <c r="H4" t="n">
-        <v>871819.2167278458</v>
+        <v>886934.0382670857</v>
       </c>
       <c r="I4" t="n">
-        <v>868287.0890674284</v>
+        <v>883639.581177989</v>
       </c>
       <c r="J4" t="n">
-        <v>842173.6808321811</v>
+        <v>878710.3382884141</v>
       </c>
       <c r="K4" t="n">
-        <v>838726.201226137</v>
+        <v>875171.689710143</v>
       </c>
       <c r="L4" t="n">
-        <v>863776.1380463018</v>
+        <v>872550.3677631624</v>
       </c>
       <c r="M4" t="n">
-        <v>860198.0361324432</v>
+        <v>868964.594721674</v>
       </c>
       <c r="N4" t="n">
-        <v>856614.7895030186</v>
+        <v>865373.6659348083</v>
       </c>
       <c r="O4" t="n">
-        <v>802148.620746489</v>
+        <v>861487.3963540826</v>
       </c>
       <c r="P4" t="n">
-        <v>798774.3128674809</v>
+        <v>857915.8591605959</v>
       </c>
     </row>
     <row r="5">
@@ -657,49 +657,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66330.44099999999</v>
+        <v>74547.43700000001</v>
       </c>
       <c r="C5" t="n">
-        <v>66330.44100000001</v>
+        <v>74631.50599999999</v>
       </c>
       <c r="D5" t="n">
-        <v>66330.44100000001</v>
+        <v>74631.50599999999</v>
       </c>
       <c r="E5" t="n">
-        <v>62042.922</v>
+        <v>73444.787</v>
       </c>
       <c r="F5" t="n">
-        <v>62042.922</v>
+        <v>73444.787</v>
       </c>
       <c r="G5" t="n">
-        <v>66414.51000000001</v>
+        <v>73444.787</v>
       </c>
       <c r="H5" t="n">
-        <v>66414.51000000001</v>
+        <v>73360.71800000001</v>
       </c>
       <c r="I5" t="n">
-        <v>66414.51000000001</v>
+        <v>73444.787</v>
       </c>
       <c r="J5" t="n">
-        <v>61202.232</v>
+        <v>72607.103</v>
       </c>
       <c r="K5" t="n">
-        <v>61202.232</v>
+        <v>72607.103</v>
       </c>
       <c r="L5" t="n">
-        <v>68936.58</v>
+        <v>76474.277</v>
       </c>
       <c r="M5" t="n">
-        <v>68936.58</v>
+        <v>76474.277</v>
       </c>
       <c r="N5" t="n">
-        <v>68936.58</v>
+        <v>75319.077</v>
       </c>
       <c r="O5" t="n">
-        <v>57587.265</v>
+        <v>72769.986</v>
       </c>
       <c r="P5" t="n">
-        <v>57587.265</v>
+        <v>72769.986</v>
       </c>
     </row>
     <row r="6">
@@ -709,49 +709,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1089991.609402756</v>
+        <v>1016436.333012921</v>
       </c>
       <c r="C6" t="n">
-        <v>1404693.730702301</v>
+        <v>1404726.423881753</v>
       </c>
       <c r="D6" t="n">
-        <v>1408200.602847976</v>
+        <v>1409081.26331963</v>
       </c>
       <c r="E6" t="n">
-        <v>1122146.649926321</v>
+        <v>1110337.547848542</v>
       </c>
       <c r="F6" t="n">
-        <v>1404789.642529725</v>
+        <v>1411034.728630005</v>
       </c>
       <c r="G6" t="n">
-        <v>1066064.64043239</v>
+        <v>1036184.801627936</v>
       </c>
       <c r="H6" t="n">
-        <v>1422391.844059295</v>
+        <v>1417632.58039021</v>
       </c>
       <c r="I6" t="n">
-        <v>1425923.971719712</v>
+        <v>1420899.765059394</v>
       </c>
       <c r="J6" t="n">
-        <v>1185868.437604328</v>
+        <v>1154664.129778238</v>
       </c>
       <c r="K6" t="n">
-        <v>1418915.917210372</v>
+        <v>1421274.778356507</v>
       </c>
       <c r="L6" t="n">
-        <v>1012927.210546447</v>
+        <v>1015880.062011079</v>
       </c>
       <c r="M6" t="n">
-        <v>1442905.312460305</v>
+        <v>1434665.835052566</v>
       </c>
       <c r="N6" t="n">
-        <v>1446488.55908973</v>
+        <v>1438611.963839437</v>
       </c>
       <c r="O6" t="n">
-        <v>1294524.701561249</v>
+        <v>1213805.212725299</v>
       </c>
       <c r="P6" t="n">
-        <v>1419499.009440259</v>
+        <v>1440800.749918766</v>
       </c>
     </row>
   </sheetData>
@@ -854,76 +854,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>34.00999999985143</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>34.00999999985143</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>34.00999999985143</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>34.00999999985143</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>34.00999999985143</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>34.00999999985143</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>35.88552906079121</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>35.88552906079121</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>35.88552906079121</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>35.88552906079121</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>17.07079684802924</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
     </row>
     <row r="3">
@@ -933,76 +933,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
     </row>
     <row r="4">
@@ -1012,76 +1012,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>15.19999999983702</v>
       </c>
     </row>
     <row r="5">
@@ -1091,76 +1091,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>34.00999999981487</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>16.66005983983193</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
     </row>
     <row r="6">
@@ -1170,76 +1170,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
     </row>
     <row r="7">
@@ -1249,76 +1249,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
     </row>
     <row r="8">
@@ -1328,76 +1328,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>34.00999999980767</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.09607684793585</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>16.66005983983193</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
     </row>
     <row r="9">
@@ -1407,76 +1407,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
     </row>
     <row r="10">
@@ -1486,76 +1486,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>15.19999999977881</v>
       </c>
     </row>
     <row r="11">
@@ -1565,76 +1565,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>125.2999999998074</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>194.5999999998363</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>210.5051607600622</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>210.5051607600622</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>210.5051607600622</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>210.5051607600622</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>210.5051607600622</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>210.5051607600622</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>210.5051607600622</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.5051607600622</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>140.5539922368068</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>87.57878088160213</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
     </row>
     <row r="12">
@@ -1644,76 +1644,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
     </row>
     <row r="13">
@@ -1723,76 +1723,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>55.99999999977854</v>
       </c>
     </row>
     <row r="14">
@@ -1802,76 +1802,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>125.2999999996472</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>194.5999999996904</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>210.5051607598876</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>210.5051607598876</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>210.5051607598876</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>210.5051607598876</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>210.5051607598876</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>210.5051607598876</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>210.5051607598876</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.5051607598876</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>140.5539922366322</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>87.57878088142751</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
     </row>
     <row r="15">
@@ -1881,76 +1881,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
     </row>
     <row r="16">
@@ -1960,76 +1960,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>55.99999999960392</v>
       </c>
     </row>
     <row r="17">
@@ -2039,76 +2039,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>125.2999999997636</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>194.5999999998068</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>210.505160760004</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>210.505160760004</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>210.505160760004</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>210.505160760004</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>210.505160760004</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>210.505160760004</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>210.505160760004</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.505160760004</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>140.5539922367486</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>87.57878088154392</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
     </row>
     <row r="18">
@@ -2118,76 +2118,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
     </row>
     <row r="19">
@@ -2197,76 +2197,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
     </row>
     <row r="20">
@@ -2276,76 +2276,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>125.2999999996617</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>125.2999999996617</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>125.2999999996617</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>125.2999999996617</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>142.3831311241688</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>211.6831311242121</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>211.6831311242121</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>211.6831311242121</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.6831311242121</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>141.3532473963866</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>87.96729903313098</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
     </row>
     <row r="21">
@@ -2355,76 +2355,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
     </row>
     <row r="22">
@@ -2434,76 +2434,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
     </row>
     <row r="23">
@@ -2513,76 +2513,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>194.794839240051</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>264.0948392400942</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>280.0000000002914</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>280.0000000002914</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>280.0000000002914</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>280.0000000002914</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>280.0000000002914</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>280.0000000002914</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>280.0000000002914</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>280.0000000002914</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>210.0488314770359</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>157.0736201218313</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>125.4948392400077</v>
       </c>
     </row>
     <row r="24">
@@ -2592,76 +2592,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
     </row>
     <row r="25">
@@ -2671,76 +2671,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>55.99999999958936</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>55.99999999961847</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>55.99999999964757</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>55.99999999972033</v>
       </c>
     </row>
     <row r="26">
@@ -2750,76 +2750,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>189.7399999996907</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>189.7399999996907</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>189.7399999996907</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>243.4560698507969</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>348.3960698508401</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>348.3960698508401</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>348.3960698508401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>348.3960698508401</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>242.0812649639483</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>152.7424172451074</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>84.79999999972017</v>
       </c>
     </row>
     <row r="27">
@@ -2829,76 +2829,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>84.79999999961831</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>84.79999999961831</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>84.79999999972017</v>
       </c>
     </row>
     <row r="28">
@@ -2908,76 +2908,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>84.7999999995892</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>84.79999999964741</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>84.79999999972017</v>
       </c>
     </row>
     <row r="29">
@@ -2987,76 +2987,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>214.1200000002634</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>319.0600000003355</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>317.6851951135158</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>228.3463473946748</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>160.4039301492148</v>
       </c>
     </row>
     <row r="30">
@@ -3066,76 +3066,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>84.79999999960376</v>
       </c>
     </row>
     <row r="31">
@@ -3145,76 +3145,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>84.79999999929817</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>84.79999999932727</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>84.79999999960376</v>
       </c>
     </row>
     <row r="32">
@@ -3224,76 +3224,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>404.7378695434475</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>364.149841578236</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>321.2756403241152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>299.7978695433754</v>
       </c>
     </row>
     <row r="33">
@@ -3303,76 +3303,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>84.79999999921085</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>84.79999999921085</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>84.79999999960376</v>
       </c>
     </row>
     <row r="34">
@@ -3382,76 +3382,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>84.79999999921085</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>84.79999999921085</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>84.79999999960376</v>
       </c>
     </row>
     <row r="35">
@@ -3461,76 +3461,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>404.7378695434033</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>424.0000000004076</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>364.1498415782212</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>321.2756403240857</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>299.7978695433313</v>
       </c>
     </row>
     <row r="36">
@@ -3540,76 +3540,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>84.79999999921085</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>84.79999999921085</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>84.79999999960376</v>
       </c>
     </row>
     <row r="37">
@@ -3619,76 +3619,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>84.79999999921085</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>84.79999999894892</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>84.79999999921085</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>84.79999999947279</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>84.79999999960376</v>
       </c>
     </row>
     <row r="38">
@@ -3698,76 +3698,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>309.9278695438563</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>348.0000000006985</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>348.0000000006985</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>348.0000000006985</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>348.0000000006985</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>348.0000000006985</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>348.0000000006985</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>288.149841578571</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>245.2756403244943</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>223.7978695437986</v>
       </c>
     </row>
     <row r="39">
@@ -3777,76 +3777,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
     </row>
     <row r="40">
@@ -3856,76 +3856,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>69.59999999939464</v>
       </c>
     </row>
     <row r="41">
@@ -3935,76 +3935,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>199.9800000002634</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>297.9900000003354</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>296.7559021843553</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>214.4877615363539</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>153.6160513617335</v>
       </c>
     </row>
     <row r="42">
@@ -4014,76 +4014,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>79.19999999948777</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>79.19999999937136</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>79.19999999948777</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>79.19999999960419</v>
       </c>
     </row>
     <row r="43">
@@ -4093,76 +4093,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>396.0000000004075</v>
       </c>
     </row>
     <row r="44">
@@ -4172,76 +4172,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>199.9800000005832</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>297.9900000006409</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>296.7559021845728</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>214.4877615364979</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>153.6160513618041</v>
       </c>
     </row>
     <row r="45">
@@ -4251,76 +4251,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>79.19999999925494</v>
       </c>
     </row>
     <row r="46">
@@ -4330,76 +4330,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>396.0000000006985</v>
       </c>
     </row>
   </sheetData>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.0770335365087</v>
+        <v>126.7882220935474</v>
       </c>
       <c r="J2" t="n">
-        <v>500.1104761575116</v>
+        <v>498.9738614378097</v>
       </c>
       <c r="K2" t="n">
-        <v>720.725</v>
+        <v>739.7250000000146</v>
       </c>
       <c r="L2" t="n">
         <v>716.28</v>
@@ -4547,13 +4547,13 @@
         <v>605.7900000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>602.615</v>
+        <v>604.5094737989291</v>
       </c>
       <c r="R2" t="n">
-        <v>484.6236099125817</v>
+        <v>483.5221926150284</v>
       </c>
       <c r="S2" t="n">
-        <v>69.11350712110288</v>
+        <v>68.95643096530387</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.5427265359322</v>
+        <v>142.2187657906224</v>
       </c>
       <c r="J3" t="n">
         <v>508</v>
@@ -4629,7 +4629,7 @@
         <v>508</v>
       </c>
       <c r="R3" t="n">
-        <v>253.8283445833949</v>
+        <v>253.2514619801892</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4681,10 +4681,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>262.7824989850633</v>
+        <v>262.1852660308865</v>
       </c>
       <c r="J4" t="n">
-        <v>595.513356752228</v>
+        <v>594.1599173037184</v>
       </c>
       <c r="K4" t="n">
         <v>739.775</v>
@@ -4705,10 +4705,10 @@
         <v>650.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>398.1032468631165</v>
+        <v>397.1984667542678</v>
       </c>
       <c r="R4" t="n">
-        <v>76.79687323758844</v>
+        <v>76.62233488613595</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -4778,10 +4778,10 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>660.4</v>
+        <v>679.4000000000364</v>
       </c>
       <c r="P5" t="n">
-        <v>605.7900000000001</v>
+        <v>606.8870473213344</v>
       </c>
       <c r="Q5" t="n">
         <v>602.615</v>
@@ -5015,10 +5015,10 @@
         <v>676.9100000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>660.4</v>
+        <v>679.4000000000291</v>
       </c>
       <c r="P8" t="n">
-        <v>605.7900000000001</v>
+        <v>606.8870473213417</v>
       </c>
       <c r="Q8" t="n">
         <v>602.615</v>
@@ -5240,13 +5240,13 @@
         <v>500.1104761575116</v>
       </c>
       <c r="K11" t="n">
-        <v>720.725</v>
+        <v>790.7250000000291</v>
       </c>
       <c r="L11" t="n">
-        <v>716.28</v>
+        <v>786.2800000000291</v>
       </c>
       <c r="M11" t="n">
-        <v>680.72</v>
+        <v>696.7858189497232</v>
       </c>
       <c r="N11" t="n">
         <v>676.9100000000001</v>
@@ -5477,13 +5477,13 @@
         <v>500.1104761575116</v>
       </c>
       <c r="K14" t="n">
-        <v>720.725</v>
+        <v>790.7250000000437</v>
       </c>
       <c r="L14" t="n">
-        <v>716.28</v>
+        <v>786.2800000000436</v>
       </c>
       <c r="M14" t="n">
-        <v>680.72</v>
+        <v>696.7858189496941</v>
       </c>
       <c r="N14" t="n">
         <v>676.9100000000001</v>
@@ -5714,13 +5714,13 @@
         <v>500.1104761575116</v>
       </c>
       <c r="K17" t="n">
-        <v>720.725</v>
+        <v>790.7250000000437</v>
       </c>
       <c r="L17" t="n">
-        <v>716.28</v>
+        <v>786.2800000000436</v>
       </c>
       <c r="M17" t="n">
-        <v>680.72</v>
+        <v>696.7858189496941</v>
       </c>
       <c r="N17" t="n">
         <v>676.9100000000001</v>
@@ -5945,16 +5945,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>127.0770335365087</v>
+        <v>126.7882220935474</v>
       </c>
       <c r="J20" t="n">
-        <v>500.1104761575116</v>
+        <v>498.9738614378098</v>
       </c>
       <c r="K20" t="n">
         <v>720.725</v>
       </c>
       <c r="L20" t="n">
-        <v>716.28</v>
+        <v>786.2800000000314</v>
       </c>
       <c r="M20" t="n">
         <v>680.72</v>
@@ -5966,16 +5966,16 @@
         <v>660.4</v>
       </c>
       <c r="P20" t="n">
-        <v>605.7900000000001</v>
+        <v>623.0456880045527</v>
       </c>
       <c r="Q20" t="n">
-        <v>602.615</v>
+        <v>672.6150000000437</v>
       </c>
       <c r="R20" t="n">
-        <v>484.6236099125817</v>
+        <v>483.5221926150284</v>
       </c>
       <c r="S20" t="n">
-        <v>69.11350712110288</v>
+        <v>68.95643096530387</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>142.5427265359322</v>
+        <v>142.2187657906224</v>
       </c>
       <c r="J21" t="n">
         <v>508</v>
@@ -6051,7 +6051,7 @@
         <v>508</v>
       </c>
       <c r="R21" t="n">
-        <v>253.8283445833949</v>
+        <v>253.2514619801892</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -6103,10 +6103,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>262.7824989850633</v>
+        <v>262.1852660308865</v>
       </c>
       <c r="J22" t="n">
-        <v>595.513356752228</v>
+        <v>594.1599173037184</v>
       </c>
       <c r="K22" t="n">
         <v>739.775</v>
@@ -6127,10 +6127,10 @@
         <v>650.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>398.1032468631165</v>
+        <v>397.1984667542678</v>
       </c>
       <c r="R22" t="n">
-        <v>76.79687323758844</v>
+        <v>76.62233488613595</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -6188,13 +6188,13 @@
         <v>500.1104761575116</v>
       </c>
       <c r="K23" t="n">
-        <v>720.725</v>
+        <v>790.725</v>
       </c>
       <c r="L23" t="n">
-        <v>716.28</v>
+        <v>786.28</v>
       </c>
       <c r="M23" t="n">
-        <v>680.72</v>
+        <v>696.7858189496941</v>
       </c>
       <c r="N23" t="n">
         <v>676.9100000000001</v>
@@ -6431,7 +6431,7 @@
         <v>716.28</v>
       </c>
       <c r="M26" t="n">
-        <v>680.72</v>
+        <v>786.72</v>
       </c>
       <c r="N26" t="n">
         <v>676.9100000000001</v>
@@ -6440,10 +6440,10 @@
         <v>660.4</v>
       </c>
       <c r="P26" t="n">
-        <v>605.7900000000001</v>
+        <v>660.0486564152588</v>
       </c>
       <c r="Q26" t="n">
-        <v>602.615</v>
+        <v>708.615</v>
       </c>
       <c r="R26" t="n">
         <v>484.6236099125817</v>
@@ -6662,13 +6662,13 @@
         <v>500.1104761575116</v>
       </c>
       <c r="K29" t="n">
-        <v>720.725</v>
+        <v>774.9836564152006</v>
       </c>
       <c r="L29" t="n">
-        <v>716.28</v>
+        <v>822.28</v>
       </c>
       <c r="M29" t="n">
-        <v>680.72</v>
+        <v>786.72</v>
       </c>
       <c r="N29" t="n">
         <v>676.9100000000001</v>
@@ -6908,10 +6908,10 @@
         <v>680.72</v>
       </c>
       <c r="N32" t="n">
-        <v>676.9100000000001</v>
+        <v>782.9100000000728</v>
       </c>
       <c r="O32" t="n">
-        <v>660.4</v>
+        <v>679.8566974312728</v>
       </c>
       <c r="P32" t="n">
         <v>605.7900000000001</v>
@@ -7145,10 +7145,10 @@
         <v>680.72</v>
       </c>
       <c r="N35" t="n">
-        <v>676.9100000000001</v>
+        <v>782.9100000000728</v>
       </c>
       <c r="O35" t="n">
-        <v>660.4</v>
+        <v>679.8566974313173</v>
       </c>
       <c r="P35" t="n">
         <v>605.7900000000001</v>
@@ -7382,10 +7382,10 @@
         <v>680.72</v>
       </c>
       <c r="N38" t="n">
-        <v>676.9100000000001</v>
+        <v>763.9100000000583</v>
       </c>
       <c r="O38" t="n">
-        <v>660.4</v>
+        <v>698.8566974311537</v>
       </c>
       <c r="P38" t="n">
         <v>605.7900000000001</v>
@@ -7613,13 +7613,13 @@
         <v>720.725</v>
       </c>
       <c r="L41" t="n">
-        <v>716.28</v>
+        <v>763.1122713520504</v>
       </c>
       <c r="M41" t="n">
-        <v>680.72</v>
+        <v>779.7200000000728</v>
       </c>
       <c r="N41" t="n">
-        <v>676.9100000000001</v>
+        <v>775.9100000000728</v>
       </c>
       <c r="O41" t="n">
         <v>660.4</v>
@@ -7850,13 +7850,13 @@
         <v>720.725</v>
       </c>
       <c r="L44" t="n">
-        <v>716.28</v>
+        <v>763.1122713523022</v>
       </c>
       <c r="M44" t="n">
-        <v>680.72</v>
+        <v>779.7200000000582</v>
       </c>
       <c r="N44" t="n">
-        <v>676.9100000000001</v>
+        <v>775.9100000000583</v>
       </c>
       <c r="O44" t="n">
         <v>660.4</v>
@@ -8150,25 +8150,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-826.1037450028298</v>
+        <v>-825.5813842187324</v>
       </c>
       <c r="C2" t="n">
-        <v>-780.3257817577396</v>
+        <v>-779.8280867991992</v>
       </c>
       <c r="D2" t="n">
-        <v>-720.9289116565008</v>
+        <v>-720.4868345845542</v>
       </c>
       <c r="E2" t="n">
-        <v>-683.4770677455434</v>
+        <v>-683.039290318849</v>
       </c>
       <c r="F2" t="n">
-        <v>-678.54014870429</v>
+        <v>-678.1049324572348</v>
       </c>
       <c r="G2" t="n">
-        <v>-709.326661363265</v>
+        <v>-708.8849757692576</v>
       </c>
       <c r="H2" t="n">
-        <v>-751.407264750532</v>
+        <v>-751.0763164215535</v>
       </c>
       <c r="I2" t="n">
         <v>-614.6799999999999</v>
@@ -8204,22 +8204,22 @@
         <v>-564.515</v>
       </c>
       <c r="T2" t="n">
-        <v>-872.9155015748137</v>
+        <v>-872.4238527075983</v>
       </c>
       <c r="U2" t="n">
-        <v>-991.3907298200254</v>
+        <v>-990.6962054340709</v>
       </c>
       <c r="V2" t="n">
-        <v>-972.7171769351695</v>
+        <v>-972.0578765330441</v>
       </c>
       <c r="W2" t="n">
-        <v>-949.1811034144504</v>
+        <v>-948.4973622703267</v>
       </c>
       <c r="X2" t="n">
-        <v>-835.0386250141482</v>
+        <v>-834.3920485936615</v>
       </c>
       <c r="Y2" t="n">
-        <v>-749.1408669101759</v>
+        <v>-748.6130240308346</v>
       </c>
     </row>
     <row r="3">
@@ -8229,25 +8229,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-643.9170916081518</v>
+        <v>-643.463870945406</v>
       </c>
       <c r="C3" t="n">
-        <v>-601.2969412516379</v>
+        <v>-600.868425476066</v>
       </c>
       <c r="D3" t="n">
-        <v>-561.4275748088519</v>
+        <v>-561.0175121388318</v>
       </c>
       <c r="E3" t="n">
-        <v>-527.4264172844714</v>
+        <v>-527.0214708815522</v>
       </c>
       <c r="F3" t="n">
-        <v>-524.3030463988928</v>
+        <v>-523.905198566168</v>
       </c>
       <c r="G3" t="n">
-        <v>-548.44189690301</v>
+        <v>-548.0613471373213</v>
       </c>
       <c r="H3" t="n">
-        <v>-609.2052264934215</v>
+        <v>-608.9030555241183</v>
       </c>
       <c r="I3" t="n">
         <v>-488.95</v>
@@ -8280,25 +8280,25 @@
         <v>-488.95</v>
       </c>
       <c r="S3" t="n">
-        <v>-483.5002940856804</v>
+        <v>-483.4838161445766</v>
       </c>
       <c r="T3" t="n">
-        <v>-727.2515106360167</v>
+        <v>-726.8975299300257</v>
       </c>
       <c r="U3" t="n">
-        <v>-793.5643808391968</v>
+        <v>-793.1318481554714</v>
       </c>
       <c r="V3" t="n">
-        <v>-788.7078867717157</v>
+        <v>-788.2863915745072</v>
       </c>
       <c r="W3" t="n">
-        <v>-771.524164036297</v>
+        <v>-771.0695636634872</v>
       </c>
       <c r="X3" t="n">
-        <v>-675.4238557881962</v>
+        <v>-674.9711879341321</v>
       </c>
       <c r="Y3" t="n">
-        <v>-631.5508133819358</v>
+        <v>-631.1256978969769</v>
       </c>
     </row>
     <row r="4">
@@ -8308,25 +8308,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-737.3204382134741</v>
+        <v>-736.9363576720798</v>
       </c>
       <c r="C4" t="n">
-        <v>-696.5881007455363</v>
+        <v>-696.2287641529327</v>
       </c>
       <c r="D4" t="n">
-        <v>-674.3412379612031</v>
+        <v>-673.9631896931095</v>
       </c>
       <c r="E4" t="n">
-        <v>-641.2507668233993</v>
+        <v>-640.8786514442552</v>
       </c>
       <c r="F4" t="n">
-        <v>-637.4009440934956</v>
+        <v>-637.0404646751012</v>
       </c>
       <c r="G4" t="n">
-        <v>-652.9097698053923</v>
+        <v>-652.5905316921983</v>
       </c>
       <c r="H4" t="n">
-        <v>-660.9207753695249</v>
+        <v>-660.8026940618669</v>
       </c>
       <c r="I4" t="n">
         <v>-622.9349999999999</v>
@@ -8359,25 +8359,25 @@
         <v>-633.73</v>
       </c>
       <c r="S4" t="n">
-        <v>-684.8364784139557</v>
+        <v>-684.6929068721058</v>
       </c>
       <c r="T4" t="n">
-        <v>-789.0540608315382</v>
+        <v>-788.8929947841938</v>
       </c>
       <c r="U4" t="n">
-        <v>-821.8838959963732</v>
+        <v>-821.7218189600178</v>
       </c>
       <c r="V4" t="n">
-        <v>-832.6635966082617</v>
+        <v>-832.4799066159702</v>
       </c>
       <c r="W4" t="n">
-        <v>-819.9272246581436</v>
+        <v>-819.7017650566478</v>
       </c>
       <c r="X4" t="n">
-        <v>-740.5990865622442</v>
+        <v>-740.3403272746028</v>
       </c>
       <c r="Y4" t="n">
-        <v>-737.4807598536958</v>
+        <v>-737.1583717631191</v>
       </c>
     </row>
     <row r="5">
@@ -9572,25 +9572,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-826.1037450028298</v>
+        <v>-825.5813842187324</v>
       </c>
       <c r="C20" t="n">
-        <v>-780.3257817577396</v>
+        <v>-779.8280867991992</v>
       </c>
       <c r="D20" t="n">
-        <v>-720.9289116565008</v>
+        <v>-720.4868345845542</v>
       </c>
       <c r="E20" t="n">
-        <v>-683.4770677455434</v>
+        <v>-683.039290318849</v>
       </c>
       <c r="F20" t="n">
-        <v>-678.54014870429</v>
+        <v>-678.1049324572348</v>
       </c>
       <c r="G20" t="n">
-        <v>-709.326661363265</v>
+        <v>-708.8849757692576</v>
       </c>
       <c r="H20" t="n">
-        <v>-751.407264750532</v>
+        <v>-751.0763164215535</v>
       </c>
       <c r="I20" t="n">
         <v>-614.6799999999999</v>
@@ -9626,22 +9626,22 @@
         <v>-564.515</v>
       </c>
       <c r="T20" t="n">
-        <v>-872.9155015748137</v>
+        <v>-872.4238527075983</v>
       </c>
       <c r="U20" t="n">
-        <v>-991.3907298200254</v>
+        <v>-990.6962054340709</v>
       </c>
       <c r="V20" t="n">
-        <v>-972.7171769351695</v>
+        <v>-972.0578765330441</v>
       </c>
       <c r="W20" t="n">
-        <v>-949.1811034144504</v>
+        <v>-948.4973622703267</v>
       </c>
       <c r="X20" t="n">
-        <v>-835.0386250141482</v>
+        <v>-834.3920485936615</v>
       </c>
       <c r="Y20" t="n">
-        <v>-749.1408669101759</v>
+        <v>-748.6130240308346</v>
       </c>
     </row>
     <row r="21">
@@ -9651,25 +9651,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-643.9170916081518</v>
+        <v>-643.463870945406</v>
       </c>
       <c r="C21" t="n">
-        <v>-601.2969412516379</v>
+        <v>-600.868425476066</v>
       </c>
       <c r="D21" t="n">
-        <v>-561.4275748088519</v>
+        <v>-561.0175121388318</v>
       </c>
       <c r="E21" t="n">
-        <v>-527.4264172844714</v>
+        <v>-527.0214708815522</v>
       </c>
       <c r="F21" t="n">
-        <v>-524.3030463988928</v>
+        <v>-523.905198566168</v>
       </c>
       <c r="G21" t="n">
-        <v>-548.44189690301</v>
+        <v>-548.0613471373213</v>
       </c>
       <c r="H21" t="n">
-        <v>-609.2052264934215</v>
+        <v>-608.9030555241183</v>
       </c>
       <c r="I21" t="n">
         <v>-488.95</v>
@@ -9702,25 +9702,25 @@
         <v>-488.95</v>
       </c>
       <c r="S21" t="n">
-        <v>-483.5002940856804</v>
+        <v>-483.4838161445766</v>
       </c>
       <c r="T21" t="n">
-        <v>-727.2515106360167</v>
+        <v>-726.8975299300257</v>
       </c>
       <c r="U21" t="n">
-        <v>-793.5643808391968</v>
+        <v>-793.1318481554714</v>
       </c>
       <c r="V21" t="n">
-        <v>-788.7078867717157</v>
+        <v>-788.2863915745072</v>
       </c>
       <c r="W21" t="n">
-        <v>-771.524164036297</v>
+        <v>-771.0695636634872</v>
       </c>
       <c r="X21" t="n">
-        <v>-675.4238557881962</v>
+        <v>-674.9711879341321</v>
       </c>
       <c r="Y21" t="n">
-        <v>-631.5508133819358</v>
+        <v>-631.1256978969769</v>
       </c>
     </row>
     <row r="22">
@@ -9730,25 +9730,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-737.3204382134741</v>
+        <v>-736.9363576720798</v>
       </c>
       <c r="C22" t="n">
-        <v>-696.5881007455363</v>
+        <v>-696.2287641529327</v>
       </c>
       <c r="D22" t="n">
-        <v>-674.3412379612031</v>
+        <v>-673.9631896931095</v>
       </c>
       <c r="E22" t="n">
-        <v>-641.2507668233993</v>
+        <v>-640.8786514442552</v>
       </c>
       <c r="F22" t="n">
-        <v>-637.4009440934956</v>
+        <v>-637.0404646751012</v>
       </c>
       <c r="G22" t="n">
-        <v>-652.9097698053923</v>
+        <v>-652.5905316921983</v>
       </c>
       <c r="H22" t="n">
-        <v>-660.9207753695249</v>
+        <v>-660.8026940618669</v>
       </c>
       <c r="I22" t="n">
         <v>-622.9349999999999</v>
@@ -9781,25 +9781,25 @@
         <v>-633.73</v>
       </c>
       <c r="S22" t="n">
-        <v>-684.8364784139557</v>
+        <v>-684.6929068721058</v>
       </c>
       <c r="T22" t="n">
-        <v>-789.0540608315382</v>
+        <v>-788.8929947841938</v>
       </c>
       <c r="U22" t="n">
-        <v>-821.8838959963732</v>
+        <v>-821.7218189600178</v>
       </c>
       <c r="V22" t="n">
-        <v>-832.6635966082617</v>
+        <v>-832.4799066159702</v>
       </c>
       <c r="W22" t="n">
-        <v>-819.9272246581436</v>
+        <v>-819.7017650566478</v>
       </c>
       <c r="X22" t="n">
-        <v>-740.5990865622442</v>
+        <v>-740.3403272746028</v>
       </c>
       <c r="Y22" t="n">
-        <v>-737.4807598536958</v>
+        <v>-737.1583717631191</v>
       </c>
     </row>
     <row r="23">
@@ -11798,76 +11798,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-826.1037450028298</v>
+        <v>-825.5813842187324</v>
       </c>
       <c r="C2" t="n">
-        <v>-780.3257817577396</v>
+        <v>-779.8280867991992</v>
       </c>
       <c r="D2" t="n">
-        <v>-720.9289116565008</v>
+        <v>-720.4868345845542</v>
       </c>
       <c r="E2" t="n">
-        <v>-683.4770677455434</v>
+        <v>-683.039290318849</v>
       </c>
       <c r="F2" t="n">
-        <v>-678.54014870429</v>
+        <v>-678.1049324572348</v>
       </c>
       <c r="G2" t="n">
-        <v>-709.326661363265</v>
+        <v>-708.8849757692576</v>
       </c>
       <c r="H2" t="n">
-        <v>-751.407264750532</v>
+        <v>-751.0763164215535</v>
       </c>
       <c r="I2" t="n">
-        <v>-487.6029664666039</v>
+        <v>-487.8917779064525</v>
       </c>
       <c r="J2" t="n">
-        <v>-129.1745238436532</v>
+        <v>-130.3111385621904</v>
       </c>
       <c r="K2" t="n">
-        <v>107.0917056645438</v>
+        <v>105.2103040607607</v>
       </c>
       <c r="L2" t="n">
-        <v>347.8671974678223</v>
+        <v>345.4486811099409</v>
       </c>
       <c r="M2" t="n">
-        <v>431.8953221391414</v>
+        <v>429.3666509524614</v>
       </c>
       <c r="N2" t="n">
-        <v>531.3709722798953</v>
+        <v>528.6248791610774</v>
       </c>
       <c r="O2" t="n">
-        <v>576.8330991071665</v>
+        <v>574.0212057001048</v>
       </c>
       <c r="P2" t="n">
-        <v>510.2916236973302</v>
+        <v>507.7550745525635</v>
       </c>
       <c r="Q2" t="n">
-        <v>298.0685909104451</v>
+        <v>296.021582749285</v>
       </c>
       <c r="R2" t="n">
-        <v>-95.76639008972091</v>
+        <v>-96.86780738497157</v>
       </c>
       <c r="S2" t="n">
-        <v>-495.4014928821556</v>
+        <v>-495.5585690346961</v>
       </c>
       <c r="T2" t="n">
-        <v>-872.9155015748137</v>
+        <v>-872.4238527075983</v>
       </c>
       <c r="U2" t="n">
-        <v>-991.3907298200254</v>
+        <v>-990.6962054340709</v>
       </c>
       <c r="V2" t="n">
-        <v>-972.7171769351695</v>
+        <v>-972.0578765330441</v>
       </c>
       <c r="W2" t="n">
-        <v>-949.1811034144504</v>
+        <v>-948.4973622703267</v>
       </c>
       <c r="X2" t="n">
-        <v>-835.0386250141482</v>
+        <v>-834.3920485936615</v>
       </c>
       <c r="Y2" t="n">
-        <v>-749.1408669101759</v>
+        <v>-748.6130240308346</v>
       </c>
     </row>
     <row r="3">
@@ -11877,76 +11877,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-643.9170916081518</v>
+        <v>-643.463870945406</v>
       </c>
       <c r="C3" t="n">
-        <v>-601.2969412516379</v>
+        <v>-600.868425476066</v>
       </c>
       <c r="D3" t="n">
-        <v>-561.4275748088519</v>
+        <v>-561.0175121388318</v>
       </c>
       <c r="E3" t="n">
-        <v>-527.4264172844714</v>
+        <v>-527.0214708815522</v>
       </c>
       <c r="F3" t="n">
-        <v>-524.3030463988928</v>
+        <v>-523.905198566168</v>
       </c>
       <c r="G3" t="n">
-        <v>-548.44189690301</v>
+        <v>-548.0613471373213</v>
       </c>
       <c r="H3" t="n">
-        <v>-609.2052264934215</v>
+        <v>-608.9030555241183</v>
       </c>
       <c r="I3" t="n">
-        <v>-346.4072734672577</v>
+        <v>-346.7312342093776</v>
       </c>
       <c r="J3" t="n">
-        <v>21.66920404119969</v>
+        <v>20.46541039565159</v>
       </c>
       <c r="K3" t="n">
-        <v>243.7138445640755</v>
+        <v>241.7889267355208</v>
       </c>
       <c r="L3" t="n">
-        <v>457.4215569823762</v>
+        <v>455.0109398074162</v>
       </c>
       <c r="M3" t="n">
-        <v>553.1776497476937</v>
+        <v>550.6215641800854</v>
       </c>
       <c r="N3" t="n">
-        <v>589.2880790182207</v>
+        <v>586.6499242931795</v>
       </c>
       <c r="O3" t="n">
-        <v>559.1463282242062</v>
+        <v>556.6055411146058</v>
       </c>
       <c r="P3" t="n">
-        <v>424.4906419496965</v>
+        <v>422.3713450361744</v>
       </c>
       <c r="Q3" t="n">
-        <v>144.0294654791081</v>
+        <v>142.547580330292</v>
       </c>
       <c r="R3" t="n">
-        <v>-235.1216554184892</v>
+        <v>-235.6985380198108</v>
       </c>
       <c r="S3" t="n">
-        <v>-483.5002940856804</v>
+        <v>-483.4838161445766</v>
       </c>
       <c r="T3" t="n">
-        <v>-727.2515106360167</v>
+        <v>-726.8975299300257</v>
       </c>
       <c r="U3" t="n">
-        <v>-793.5643808391968</v>
+        <v>-793.1318481554714</v>
       </c>
       <c r="V3" t="n">
-        <v>-788.7078867717157</v>
+        <v>-788.2863915745072</v>
       </c>
       <c r="W3" t="n">
-        <v>-771.524164036297</v>
+        <v>-771.0695636634872</v>
       </c>
       <c r="X3" t="n">
-        <v>-675.4238557881962</v>
+        <v>-674.9711879341321</v>
       </c>
       <c r="Y3" t="n">
-        <v>-631.5508133819358</v>
+        <v>-631.1256978969769</v>
       </c>
     </row>
     <row r="4">
@@ -11956,76 +11956,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-737.3204382134741</v>
+        <v>-736.9363576720798</v>
       </c>
       <c r="C4" t="n">
-        <v>-696.5881007455363</v>
+        <v>-696.2287641529327</v>
       </c>
       <c r="D4" t="n">
-        <v>-674.3412379612031</v>
+        <v>-673.9631896931095</v>
       </c>
       <c r="E4" t="n">
-        <v>-641.2507668233993</v>
+        <v>-640.8786514442552</v>
       </c>
       <c r="F4" t="n">
-        <v>-637.4009440934956</v>
+        <v>-637.0404646751012</v>
       </c>
       <c r="G4" t="n">
-        <v>-652.9097698053923</v>
+        <v>-652.5905316921983</v>
       </c>
       <c r="H4" t="n">
-        <v>-660.9207753695249</v>
+        <v>-660.8026940618669</v>
       </c>
       <c r="I4" t="n">
-        <v>-360.1525010168791</v>
+        <v>-360.7497339691134</v>
       </c>
       <c r="J4" t="n">
-        <v>-47.74164324912056</v>
+        <v>-49.09508269628168</v>
       </c>
       <c r="K4" t="n">
-        <v>117.2820930146156</v>
+        <v>115.334235985037</v>
       </c>
       <c r="L4" t="n">
-        <v>285.5716534541762</v>
+        <v>283.2384337872347</v>
       </c>
       <c r="M4" t="n">
-        <v>386.0229171904398</v>
+        <v>383.5321151059161</v>
       </c>
       <c r="N4" t="n">
-        <v>339.5537963113188</v>
+        <v>337.1657195015205</v>
       </c>
       <c r="O4" t="n">
-        <v>213.5684116959343</v>
+        <v>211.4926425784436</v>
       </c>
       <c r="P4" t="n">
-        <v>47.85621389373659</v>
+        <v>46.26963158943272</v>
       </c>
       <c r="Q4" t="n">
-        <v>-253.4067531392305</v>
+        <v>-254.3115332457322</v>
       </c>
       <c r="R4" t="n">
-        <v>-556.9331267656041</v>
+        <v>-557.1076651138641</v>
       </c>
       <c r="S4" t="n">
-        <v>-684.8364784139557</v>
+        <v>-684.6929068721058</v>
       </c>
       <c r="T4" t="n">
-        <v>-789.0540608315382</v>
+        <v>-788.8929947841938</v>
       </c>
       <c r="U4" t="n">
-        <v>-821.8838959963732</v>
+        <v>-821.7218189600178</v>
       </c>
       <c r="V4" t="n">
-        <v>-832.6635966082617</v>
+        <v>-832.4799066159702</v>
       </c>
       <c r="W4" t="n">
-        <v>-819.9272246581436</v>
+        <v>-819.7017650566478</v>
       </c>
       <c r="X4" t="n">
-        <v>-740.5990865622442</v>
+        <v>-740.3403272746028</v>
       </c>
       <c r="Y4" t="n">
-        <v>-737.4807598536958</v>
+        <v>-737.1583717631191</v>
       </c>
     </row>
     <row r="5">
@@ -13220,76 +13220,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-826.1037450028298</v>
+        <v>-825.5813842187324</v>
       </c>
       <c r="C20" t="n">
-        <v>-780.3257817577396</v>
+        <v>-779.8280867991992</v>
       </c>
       <c r="D20" t="n">
-        <v>-720.9289116565008</v>
+        <v>-720.4868345845542</v>
       </c>
       <c r="E20" t="n">
-        <v>-683.4770677455434</v>
+        <v>-683.039290318849</v>
       </c>
       <c r="F20" t="n">
-        <v>-678.54014870429</v>
+        <v>-678.1049324572348</v>
       </c>
       <c r="G20" t="n">
-        <v>-709.326661363265</v>
+        <v>-708.8849757692576</v>
       </c>
       <c r="H20" t="n">
-        <v>-751.407264750532</v>
+        <v>-751.0763164215535</v>
       </c>
       <c r="I20" t="n">
-        <v>-487.6029664666039</v>
+        <v>-487.8917779064525</v>
       </c>
       <c r="J20" t="n">
-        <v>-129.1745238436532</v>
+        <v>-130.3111385621904</v>
       </c>
       <c r="K20" t="n">
-        <v>107.0917056645438</v>
+        <v>105.2103040607607</v>
       </c>
       <c r="L20" t="n">
-        <v>347.8671974678223</v>
+        <v>345.4486811099409</v>
       </c>
       <c r="M20" t="n">
-        <v>431.8953221391414</v>
+        <v>429.3666509524614</v>
       </c>
       <c r="N20" t="n">
-        <v>531.3709722798953</v>
+        <v>528.6248791610774</v>
       </c>
       <c r="O20" t="n">
-        <v>576.8330991071665</v>
+        <v>574.0212057001048</v>
       </c>
       <c r="P20" t="n">
-        <v>510.2916236973302</v>
+        <v>507.7550745525635</v>
       </c>
       <c r="Q20" t="n">
-        <v>298.0685909104451</v>
+        <v>296.021582749285</v>
       </c>
       <c r="R20" t="n">
-        <v>-95.76639008972091</v>
+        <v>-96.86780738497157</v>
       </c>
       <c r="S20" t="n">
-        <v>-495.4014928821556</v>
+        <v>-495.5585690346961</v>
       </c>
       <c r="T20" t="n">
-        <v>-872.9155015748137</v>
+        <v>-872.4238527075983</v>
       </c>
       <c r="U20" t="n">
-        <v>-991.3907298200254</v>
+        <v>-990.6962054340709</v>
       </c>
       <c r="V20" t="n">
-        <v>-972.7171769351695</v>
+        <v>-972.0578765330441</v>
       </c>
       <c r="W20" t="n">
-        <v>-949.1811034144504</v>
+        <v>-948.4973622703267</v>
       </c>
       <c r="X20" t="n">
-        <v>-835.0386250141482</v>
+        <v>-834.3920485936615</v>
       </c>
       <c r="Y20" t="n">
-        <v>-749.1408669101759</v>
+        <v>-748.6130240308346</v>
       </c>
     </row>
     <row r="21">
@@ -13299,76 +13299,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-643.9170916081518</v>
+        <v>-643.463870945406</v>
       </c>
       <c r="C21" t="n">
-        <v>-601.2969412516379</v>
+        <v>-600.868425476066</v>
       </c>
       <c r="D21" t="n">
-        <v>-561.4275748088519</v>
+        <v>-561.0175121388318</v>
       </c>
       <c r="E21" t="n">
-        <v>-527.4264172844714</v>
+        <v>-527.0214708815522</v>
       </c>
       <c r="F21" t="n">
-        <v>-524.3030463988928</v>
+        <v>-523.905198566168</v>
       </c>
       <c r="G21" t="n">
-        <v>-548.44189690301</v>
+        <v>-548.0613471373213</v>
       </c>
       <c r="H21" t="n">
-        <v>-609.2052264934215</v>
+        <v>-608.9030555241183</v>
       </c>
       <c r="I21" t="n">
-        <v>-346.4072734672577</v>
+        <v>-346.7312342093776</v>
       </c>
       <c r="J21" t="n">
-        <v>21.66920404119969</v>
+        <v>20.46541039565159</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7138445640755</v>
+        <v>241.7889267355208</v>
       </c>
       <c r="L21" t="n">
-        <v>457.4215569823762</v>
+        <v>455.0109398074162</v>
       </c>
       <c r="M21" t="n">
-        <v>553.1776497476937</v>
+        <v>550.6215641800854</v>
       </c>
       <c r="N21" t="n">
-        <v>589.2880790182207</v>
+        <v>586.6499242931795</v>
       </c>
       <c r="O21" t="n">
-        <v>559.1463282242062</v>
+        <v>556.6055411146058</v>
       </c>
       <c r="P21" t="n">
-        <v>424.4906419496965</v>
+        <v>422.3713450361744</v>
       </c>
       <c r="Q21" t="n">
-        <v>144.0294654791081</v>
+        <v>142.547580330292</v>
       </c>
       <c r="R21" t="n">
-        <v>-235.1216554184892</v>
+        <v>-235.6985380198108</v>
       </c>
       <c r="S21" t="n">
-        <v>-483.5002940856804</v>
+        <v>-483.4838161445766</v>
       </c>
       <c r="T21" t="n">
-        <v>-727.2515106360167</v>
+        <v>-726.8975299300257</v>
       </c>
       <c r="U21" t="n">
-        <v>-793.5643808391968</v>
+        <v>-793.1318481554714</v>
       </c>
       <c r="V21" t="n">
-        <v>-788.7078867717157</v>
+        <v>-788.2863915745072</v>
       </c>
       <c r="W21" t="n">
-        <v>-771.524164036297</v>
+        <v>-771.0695636634872</v>
       </c>
       <c r="X21" t="n">
-        <v>-675.4238557881962</v>
+        <v>-674.9711879341321</v>
       </c>
       <c r="Y21" t="n">
-        <v>-631.5508133819358</v>
+        <v>-631.1256978969769</v>
       </c>
     </row>
     <row r="22">
@@ -13378,76 +13378,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-737.3204382134741</v>
+        <v>-736.9363576720798</v>
       </c>
       <c r="C22" t="n">
-        <v>-696.5881007455363</v>
+        <v>-696.2287641529327</v>
       </c>
       <c r="D22" t="n">
-        <v>-674.3412379612031</v>
+        <v>-673.9631896931095</v>
       </c>
       <c r="E22" t="n">
-        <v>-641.2507668233993</v>
+        <v>-640.8786514442552</v>
       </c>
       <c r="F22" t="n">
-        <v>-637.4009440934956</v>
+        <v>-637.0404646751012</v>
       </c>
       <c r="G22" t="n">
-        <v>-652.9097698053923</v>
+        <v>-652.5905316921983</v>
       </c>
       <c r="H22" t="n">
-        <v>-660.9207753695249</v>
+        <v>-660.8026940618669</v>
       </c>
       <c r="I22" t="n">
-        <v>-360.1525010168791</v>
+        <v>-360.7497339691134</v>
       </c>
       <c r="J22" t="n">
-        <v>-47.74164324912056</v>
+        <v>-49.09508269628168</v>
       </c>
       <c r="K22" t="n">
-        <v>117.2820930146156</v>
+        <v>115.334235985037</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5716534541762</v>
+        <v>283.2384337872347</v>
       </c>
       <c r="M22" t="n">
-        <v>386.0229171904398</v>
+        <v>383.5321151059161</v>
       </c>
       <c r="N22" t="n">
-        <v>339.5537963113188</v>
+        <v>337.1657195015205</v>
       </c>
       <c r="O22" t="n">
-        <v>213.5684116959343</v>
+        <v>211.4926425784436</v>
       </c>
       <c r="P22" t="n">
-        <v>47.85621389373659</v>
+        <v>46.26963158943272</v>
       </c>
       <c r="Q22" t="n">
-        <v>-253.4067531392305</v>
+        <v>-254.3115332457322</v>
       </c>
       <c r="R22" t="n">
-        <v>-556.9331267656041</v>
+        <v>-557.1076651138641</v>
       </c>
       <c r="S22" t="n">
-        <v>-684.8364784139557</v>
+        <v>-684.6929068721058</v>
       </c>
       <c r="T22" t="n">
-        <v>-789.0540608315382</v>
+        <v>-788.8929947841938</v>
       </c>
       <c r="U22" t="n">
-        <v>-821.8838959963732</v>
+        <v>-821.7218189600178</v>
       </c>
       <c r="V22" t="n">
-        <v>-832.6635966082617</v>
+        <v>-832.4799066159702</v>
       </c>
       <c r="W22" t="n">
-        <v>-819.9272246581436</v>
+        <v>-819.7017650566478</v>
       </c>
       <c r="X22" t="n">
-        <v>-740.5990865622442</v>
+        <v>-740.3403272746028</v>
       </c>
       <c r="Y22" t="n">
-        <v>-737.4807598536958</v>
+        <v>-737.1583717631191</v>
       </c>
     </row>
     <row r="23">
@@ -15467,37 +15467,37 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.077033533396</v>
+        <v>126.7882220935474</v>
       </c>
       <c r="J2" t="n">
-        <v>500.1104761563469</v>
+        <v>498.9738614378097</v>
       </c>
       <c r="K2" t="n">
-        <v>827.8167056645439</v>
+        <v>825.9353040607607</v>
       </c>
       <c r="L2" t="n">
-        <v>1064.147197467822</v>
+        <v>1061.728681109941</v>
       </c>
       <c r="M2" t="n">
-        <v>1112.615322139141</v>
+        <v>1110.086650952461</v>
       </c>
       <c r="N2" t="n">
-        <v>1208.280972279895</v>
+        <v>1205.534879161077</v>
       </c>
       <c r="O2" t="n">
-        <v>1237.233099107166</v>
+        <v>1234.421205700105</v>
       </c>
       <c r="P2" t="n">
-        <v>1116.08162369733</v>
+        <v>1113.545074552564</v>
       </c>
       <c r="Q2" t="n">
-        <v>900.6835909104451</v>
+        <v>898.636582749285</v>
       </c>
       <c r="R2" t="n">
-        <v>484.6236099102791</v>
+        <v>483.5221926150284</v>
       </c>
       <c r="S2" t="n">
-        <v>69.11350711784442</v>
+        <v>68.95643096530387</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -15546,34 +15546,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.5427265327423</v>
+        <v>142.2187657906224</v>
       </c>
       <c r="J3" t="n">
-        <v>529.6692040411997</v>
+        <v>528.4654103956516</v>
       </c>
       <c r="K3" t="n">
-        <v>846.9638445640755</v>
+        <v>845.0389267355208</v>
       </c>
       <c r="L3" t="n">
-        <v>1060.671556982376</v>
+        <v>1058.260939807416</v>
       </c>
       <c r="M3" t="n">
-        <v>1124.677649747694</v>
+        <v>1122.121564180085</v>
       </c>
       <c r="N3" t="n">
-        <v>1160.788079018221</v>
+        <v>1158.14992429318</v>
       </c>
       <c r="O3" t="n">
-        <v>1117.946328224206</v>
+        <v>1115.405541114606</v>
       </c>
       <c r="P3" t="n">
-        <v>932.4906419496965</v>
+        <v>930.3713450361744</v>
       </c>
       <c r="Q3" t="n">
-        <v>652.0294654791081</v>
+        <v>650.547580330292</v>
       </c>
       <c r="R3" t="n">
-        <v>253.8283445815108</v>
+        <v>253.2514619801892</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -15625,34 +15625,34 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>262.7824989831209</v>
+        <v>262.1852660308865</v>
       </c>
       <c r="J4" t="n">
-        <v>595.5133567508796</v>
+        <v>594.1599173037184</v>
       </c>
       <c r="K4" t="n">
-        <v>857.0570930146156</v>
+        <v>855.109235985037</v>
       </c>
       <c r="L4" t="n">
-        <v>1026.616653454176</v>
+        <v>1024.283433787235</v>
       </c>
       <c r="M4" t="n">
-        <v>1095.95291719044</v>
+        <v>1093.462115105916</v>
       </c>
       <c r="N4" t="n">
-        <v>1050.753796311319</v>
+        <v>1048.365719501521</v>
       </c>
       <c r="O4" t="n">
-        <v>913.3384116959344</v>
+        <v>911.2626425784437</v>
       </c>
       <c r="P4" t="n">
-        <v>698.0962138937366</v>
+        <v>696.5096315894327</v>
       </c>
       <c r="Q4" t="n">
-        <v>398.1032468607695</v>
+        <v>397.1984667542678</v>
       </c>
       <c r="R4" t="n">
-        <v>76.79687323439593</v>
+        <v>76.62233488613595</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -16889,37 +16889,37 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>127.077033533396</v>
+        <v>126.7882220935474</v>
       </c>
       <c r="J20" t="n">
-        <v>500.1104761563469</v>
+        <v>498.9738614378097</v>
       </c>
       <c r="K20" t="n">
-        <v>827.8167056645439</v>
+        <v>825.9353040607607</v>
       </c>
       <c r="L20" t="n">
-        <v>1064.147197467822</v>
+        <v>1061.728681109941</v>
       </c>
       <c r="M20" t="n">
-        <v>1112.615322139141</v>
+        <v>1110.086650952461</v>
       </c>
       <c r="N20" t="n">
-        <v>1208.280972279895</v>
+        <v>1205.534879161077</v>
       </c>
       <c r="O20" t="n">
-        <v>1237.233099107166</v>
+        <v>1234.421205700105</v>
       </c>
       <c r="P20" t="n">
-        <v>1116.08162369733</v>
+        <v>1113.545074552564</v>
       </c>
       <c r="Q20" t="n">
-        <v>900.6835909104451</v>
+        <v>898.636582749285</v>
       </c>
       <c r="R20" t="n">
-        <v>484.6236099102791</v>
+        <v>483.5221926150284</v>
       </c>
       <c r="S20" t="n">
-        <v>69.11350711784442</v>
+        <v>68.95643096530387</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -16968,34 +16968,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>142.5427265327423</v>
+        <v>142.2187657906224</v>
       </c>
       <c r="J21" t="n">
-        <v>529.6692040411997</v>
+        <v>528.4654103956516</v>
       </c>
       <c r="K21" t="n">
-        <v>846.9638445640755</v>
+        <v>845.0389267355208</v>
       </c>
       <c r="L21" t="n">
-        <v>1060.671556982376</v>
+        <v>1058.260939807416</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.677649747694</v>
+        <v>1122.121564180085</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.788079018221</v>
+        <v>1158.14992429318</v>
       </c>
       <c r="O21" t="n">
-        <v>1117.946328224206</v>
+        <v>1115.405541114606</v>
       </c>
       <c r="P21" t="n">
-        <v>932.4906419496965</v>
+        <v>930.3713450361744</v>
       </c>
       <c r="Q21" t="n">
-        <v>652.0294654791081</v>
+        <v>650.547580330292</v>
       </c>
       <c r="R21" t="n">
-        <v>253.8283445815108</v>
+        <v>253.2514619801892</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -17047,34 +17047,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>262.7824989831209</v>
+        <v>262.1852660308865</v>
       </c>
       <c r="J22" t="n">
-        <v>595.5133567508796</v>
+        <v>594.1599173037184</v>
       </c>
       <c r="K22" t="n">
-        <v>857.0570930146156</v>
+        <v>855.109235985037</v>
       </c>
       <c r="L22" t="n">
-        <v>1026.616653454176</v>
+        <v>1024.283433787235</v>
       </c>
       <c r="M22" t="n">
-        <v>1095.95291719044</v>
+        <v>1093.462115105916</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.753796311319</v>
+        <v>1048.365719501521</v>
       </c>
       <c r="O22" t="n">
-        <v>913.3384116959344</v>
+        <v>911.2626425784437</v>
       </c>
       <c r="P22" t="n">
-        <v>698.0962138937366</v>
+        <v>696.5096315894327</v>
       </c>
       <c r="Q22" t="n">
-        <v>398.1032468607695</v>
+        <v>397.1984667542678</v>
       </c>
       <c r="R22" t="n">
-        <v>76.79687323439593</v>
+        <v>76.62233488613595</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -19094,7 +19094,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -19148,19 +19148,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>83.91550157481367</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>202.3907298200254</v>
+        <v>99.06962054340705</v>
       </c>
       <c r="V2" t="n">
-        <v>183.7171769351695</v>
+        <v>97.20578765330438</v>
       </c>
       <c r="W2" t="n">
-        <v>160.1811034144504</v>
+        <v>75.49736227029723</v>
       </c>
       <c r="X2" t="n">
-        <v>46.03862501414824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>4.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -19306,16 +19306,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05406083153820873</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>32.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>43.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>30.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -19331,7 +19331,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>37.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -19385,19 +19385,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>83.91550157481367</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>202.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V5" t="n">
-        <v>183.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W5" t="n">
-        <v>160.1811034144504</v>
+        <v>75.18110341445038</v>
       </c>
       <c r="X5" t="n">
-        <v>46.03862501414824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>4.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -19543,16 +19543,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.05406083153820873</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>32.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>43.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>30.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -19568,7 +19568,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37.10374500282978</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -19622,19 +19622,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>83.91550157481367</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>202.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V8" t="n">
-        <v>183.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W8" t="n">
-        <v>160.1811034144504</v>
+        <v>75.18110341445038</v>
       </c>
       <c r="X8" t="n">
-        <v>46.03862501414824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -19704,7 +19704,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>4.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -19780,16 +19780,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.05406083153820873</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>32.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>43.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>30.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -19805,10 +19805,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.10374500282978</v>
+        <v>3.103745002829783</v>
       </c>
       <c r="C11" t="n">
-        <v>42.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>13.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -19859,22 +19859,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>134.9155015748137</v>
+        <v>49.91550157481367</v>
       </c>
       <c r="U11" t="n">
-        <v>253.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V11" t="n">
-        <v>234.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W11" t="n">
-        <v>211.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X11" t="n">
-        <v>97.03862501414824</v>
+        <v>12.03862501414824</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -19941,13 +19941,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>55.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>50.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>33.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -20017,19 +20017,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>51.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>83.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>94.66359660826174</v>
+        <v>9.663596608261741</v>
       </c>
       <c r="W13" t="n">
-        <v>81.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.599086562244224</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -20042,10 +20042,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.10374500282978</v>
+        <v>3.103745002829783</v>
       </c>
       <c r="C14" t="n">
-        <v>42.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -20060,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>13.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -20096,22 +20096,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>134.9155015748137</v>
+        <v>49.91550157481367</v>
       </c>
       <c r="U14" t="n">
-        <v>253.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V14" t="n">
-        <v>234.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W14" t="n">
-        <v>211.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X14" t="n">
-        <v>97.03862501414824</v>
+        <v>12.03862501414824</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -20178,13 +20178,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>55.56438083919682</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>50.70788677171572</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>33.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -20254,19 +20254,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>51.05406083153821</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>83.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>94.66359660826174</v>
+        <v>9.663596608261741</v>
       </c>
       <c r="W16" t="n">
-        <v>81.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>2.599086562244224</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -20279,7 +20279,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.10374500282978</v>
+        <v>3.103745002829783</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -20333,19 +20333,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>82.91550157481367</v>
+        <v>49.91550157481367</v>
       </c>
       <c r="U17" t="n">
-        <v>201.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V17" t="n">
-        <v>182.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W17" t="n">
-        <v>159.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X17" t="n">
-        <v>45.03862501414824</v>
+        <v>12.03862501414824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -20415,7 +20415,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -20494,13 +20494,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>31.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>42.66359660826174</v>
+        <v>9.663596608261741</v>
       </c>
       <c r="W19" t="n">
-        <v>29.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -20516,7 +20516,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36.10374500282978</v>
+        <v>3.581384218615767</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -20570,19 +20570,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>82.91550157481367</v>
+        <v>50.42385270748161</v>
       </c>
       <c r="U20" t="n">
-        <v>201.3907298200254</v>
+        <v>99.06962054340705</v>
       </c>
       <c r="V20" t="n">
-        <v>182.7171769351695</v>
+        <v>97.20578765330438</v>
       </c>
       <c r="W20" t="n">
-        <v>159.1811034144504</v>
+        <v>94.84973622703265</v>
       </c>
       <c r="X20" t="n">
-        <v>45.03862501414824</v>
+        <v>12.39204859354481</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -20652,7 +20652,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -20731,13 +20731,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>31.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>42.66359660826174</v>
+        <v>10.47990661585357</v>
       </c>
       <c r="W22" t="n">
-        <v>29.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -20753,7 +20753,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.10374500282978</v>
+        <v>3.103745002829783</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -20807,19 +20807,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>82.91550157481367</v>
+        <v>49.91550157481367</v>
       </c>
       <c r="U23" t="n">
-        <v>201.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V23" t="n">
-        <v>182.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W23" t="n">
-        <v>159.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X23" t="n">
-        <v>45.03862501414824</v>
+        <v>12.03862501414824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -20889,7 +20889,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>3.564380839196815</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -20968,13 +20968,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>31.88389599637321</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>42.66359660826174</v>
+        <v>9.663596608261741</v>
       </c>
       <c r="W25" t="n">
-        <v>29.92722465814359</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -20990,10 +20990,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.10374500282978</v>
+        <v>39.10374500282978</v>
       </c>
       <c r="C26" t="n">
-        <v>52.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -21008,7 +21008,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>23.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -21044,22 +21044,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>144.9155015748137</v>
+        <v>85.91550157481367</v>
       </c>
       <c r="U26" t="n">
-        <v>263.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V26" t="n">
-        <v>244.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W26" t="n">
-        <v>221.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X26" t="n">
-        <v>107.0386250141482</v>
+        <v>48.03862501414824</v>
       </c>
       <c r="Y26" t="n">
-        <v>21.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -21126,13 +21126,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>65.56438083919682</v>
+        <v>6.564380839196815</v>
       </c>
       <c r="V27" t="n">
-        <v>60.70788677171572</v>
+        <v>1.707886771715721</v>
       </c>
       <c r="W27" t="n">
-        <v>43.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -21148,7 +21148,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.320438213474063</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -21202,22 +21202,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>61.05406083153821</v>
+        <v>2.054060831538209</v>
       </c>
       <c r="U28" t="n">
-        <v>93.88389599637321</v>
+        <v>34.88389599631559</v>
       </c>
       <c r="V28" t="n">
-        <v>104.6635966082617</v>
+        <v>45.66359660826174</v>
       </c>
       <c r="W28" t="n">
-        <v>91.92722465814359</v>
+        <v>32.92722465820121</v>
       </c>
       <c r="X28" t="n">
-        <v>12.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.480759853695758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -21227,10 +21227,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.10374500282978</v>
+        <v>39.10374500282978</v>
       </c>
       <c r="C29" t="n">
-        <v>52.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -21245,7 +21245,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>23.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -21281,22 +21281,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>144.9155015748137</v>
+        <v>85.91550157481367</v>
       </c>
       <c r="U29" t="n">
-        <v>263.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V29" t="n">
-        <v>244.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W29" t="n">
-        <v>221.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X29" t="n">
-        <v>107.0386250141482</v>
+        <v>48.03862501414824</v>
       </c>
       <c r="Y29" t="n">
-        <v>21.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -21363,13 +21363,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>65.56438083919682</v>
+        <v>6.564380839196815</v>
       </c>
       <c r="V30" t="n">
-        <v>60.70788677171572</v>
+        <v>1.707886771715721</v>
       </c>
       <c r="W30" t="n">
-        <v>43.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -21385,7 +21385,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.320438213474063</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -21439,22 +21439,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>61.05406083153821</v>
+        <v>2.054060831538209</v>
       </c>
       <c r="U31" t="n">
-        <v>93.88389599637321</v>
+        <v>34.8838959963444</v>
       </c>
       <c r="V31" t="n">
-        <v>104.6635966082617</v>
+        <v>45.66359660826174</v>
       </c>
       <c r="W31" t="n">
-        <v>91.92722465814359</v>
+        <v>32.9272246581724</v>
       </c>
       <c r="X31" t="n">
-        <v>12.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.480759853695758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -21464,7 +21464,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.103745002829783</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -21518,19 +21518,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>52.91550157481367</v>
+        <v>39.91550157474069</v>
       </c>
       <c r="U32" t="n">
-        <v>171.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V32" t="n">
-        <v>152.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W32" t="n">
-        <v>129.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X32" t="n">
-        <v>15.03862501414824</v>
+        <v>2.038625014075251</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -21679,10 +21679,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.883895996373212</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>12.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -21701,7 +21701,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.103745002829783</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -21755,19 +21755,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>52.91550157481367</v>
+        <v>39.91550157475524</v>
       </c>
       <c r="U35" t="n">
-        <v>171.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V35" t="n">
-        <v>152.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W35" t="n">
-        <v>129.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X35" t="n">
-        <v>15.03862501414824</v>
+        <v>2.038625014089803</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -21916,10 +21916,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.883895996373212</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>12.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -21938,7 +21938,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.103745002829783</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -21992,19 +21992,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>52.91550157481367</v>
+        <v>39.91550157469703</v>
       </c>
       <c r="U38" t="n">
-        <v>171.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V38" t="n">
-        <v>152.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W38" t="n">
-        <v>129.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X38" t="n">
-        <v>15.03862501414824</v>
+        <v>2.038625014031595</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -22153,10 +22153,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.883895996373212</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>12.66359660826174</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -22175,13 +22175,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.1037450028298</v>
+        <v>32.10374500269859</v>
       </c>
       <c r="C41" t="n">
-        <v>95.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>35.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -22190,10 +22190,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>24.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>66.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -22229,22 +22229,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>187.9155015748137</v>
+        <v>78.91550157468248</v>
       </c>
       <c r="U41" t="n">
-        <v>306.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V41" t="n">
-        <v>287.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W41" t="n">
-        <v>264.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X41" t="n">
-        <v>150.0386250141482</v>
+        <v>41.03862501401704</v>
       </c>
       <c r="Y41" t="n">
-        <v>64.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -22308,16 +22308,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>42.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>108.5643808391968</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>103.7078867717157</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>86.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -22333,10 +22333,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>11.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -22387,22 +22387,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>104.0540608315382</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>136.8838959963732</v>
+        <v>27.88389599624202</v>
       </c>
       <c r="V43" t="n">
-        <v>147.6635966082617</v>
+        <v>38.66359660813055</v>
       </c>
       <c r="W43" t="n">
-        <v>134.9272246581436</v>
+        <v>25.92722465801239</v>
       </c>
       <c r="X43" t="n">
-        <v>55.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -22412,13 +22412,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.1037450028298</v>
+        <v>32.10374500277135</v>
       </c>
       <c r="C44" t="n">
-        <v>95.32578175773961</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>35.92891165650076</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -22427,10 +22427,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>24.32666136326498</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>66.40726475053202</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -22466,22 +22466,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.9155015748137</v>
+        <v>78.91550157475524</v>
       </c>
       <c r="U44" t="n">
-        <v>306.3907298200254</v>
+        <v>99.13907298200252</v>
       </c>
       <c r="V44" t="n">
-        <v>287.7171769351695</v>
+        <v>97.27171769351692</v>
       </c>
       <c r="W44" t="n">
-        <v>264.1811034144504</v>
+        <v>94.91811034144503</v>
       </c>
       <c r="X44" t="n">
-        <v>150.0386250141482</v>
+        <v>41.0386250140898</v>
       </c>
       <c r="Y44" t="n">
-        <v>64.14086691017587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -22545,16 +22545,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>42.25151063601675</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>108.5643808391968</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>103.7078867717157</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>86.52416403629695</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -22570,10 +22570,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.32043821347406</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>11.58810074553628</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -22624,22 +22624,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>104.0540608315382</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>136.8838959963732</v>
+        <v>27.88389599631478</v>
       </c>
       <c r="V46" t="n">
-        <v>147.6635966082617</v>
+        <v>38.66359660820331</v>
       </c>
       <c r="W46" t="n">
-        <v>134.9272246581436</v>
+        <v>25.92722465808515</v>
       </c>
       <c r="X46" t="n">
-        <v>55.59908656224422</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.48075985369576</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22767,7 +22767,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C3" t="n">
         <v>440</v>
@@ -22785,7 +22785,7 @@
         <v>440</v>
       </c>
       <c r="H3" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I3" t="n">
         <v>440</v>
@@ -22885,49 +22885,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>789</v>
+        <v>873</v>
       </c>
       <c r="C2" t="n">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="D2" t="n">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="E2" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="F2" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="G2" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="H2" t="n">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="I2" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="J2" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="K2" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="L2" t="n">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="M2" t="n">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="N2" t="n">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="O2" t="n">
-        <v>685</v>
+        <v>794</v>
       </c>
       <c r="P2" t="n">
-        <v>685</v>
+        <v>794</v>
       </c>
     </row>
     <row r="3">
@@ -22989,49 +22989,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -23107,46 +23107,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389</v>
+        <v>473</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>349</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -23159,7 +23159,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -23211,16 +23211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -23250,7 +23250,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -23344,10 +23344,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>389</v>
+        <v>473</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23359,16 +23359,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -23578,31 +23578,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>789</v>
+        <v>825.5813842187324</v>
       </c>
       <c r="C2" t="n">
-        <v>780.3257817577396</v>
+        <v>779.8280867991992</v>
       </c>
       <c r="D2" t="n">
-        <v>720.9289116565008</v>
+        <v>720.4868345845542</v>
       </c>
       <c r="E2" t="n">
-        <v>683.4770677455434</v>
+        <v>683.039290318849</v>
       </c>
       <c r="F2" t="n">
-        <v>678.54014870429</v>
+        <v>678.1049324572348</v>
       </c>
       <c r="G2" t="n">
-        <v>709.326661363265</v>
+        <v>708.8849757692576</v>
       </c>
       <c r="H2" t="n">
-        <v>751.407264750532</v>
+        <v>751.0763164215535</v>
       </c>
       <c r="I2" t="n">
-        <v>487.6029664634913</v>
+        <v>487.8917779064525</v>
       </c>
       <c r="J2" t="n">
-        <v>129.1745238424885</v>
+        <v>130.3111385621904</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -23626,28 +23626,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>95.76639008741824</v>
+        <v>96.86780738497157</v>
       </c>
       <c r="S2" t="n">
-        <v>495.4014928788971</v>
+        <v>495.5585690346961</v>
       </c>
       <c r="T2" t="n">
-        <v>789</v>
+        <v>872.4238527075983</v>
       </c>
       <c r="U2" t="n">
-        <v>789</v>
+        <v>873</v>
       </c>
       <c r="V2" t="n">
-        <v>789</v>
+        <v>873</v>
       </c>
       <c r="W2" t="n">
-        <v>789</v>
+        <v>873</v>
       </c>
       <c r="X2" t="n">
-        <v>789</v>
+        <v>834.3920485936615</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.1408669101759</v>
+        <v>748.6130240308346</v>
       </c>
     </row>
     <row r="3">
@@ -23657,28 +23657,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643.9170916081518</v>
+        <v>643.463870945406</v>
       </c>
       <c r="C3" t="n">
-        <v>601.2969412516379</v>
+        <v>600.868425476066</v>
       </c>
       <c r="D3" t="n">
-        <v>561.4275748088519</v>
+        <v>561.0175121388318</v>
       </c>
       <c r="E3" t="n">
-        <v>527.4264172844714</v>
+        <v>527.0214708815522</v>
       </c>
       <c r="F3" t="n">
-        <v>524.3030463988928</v>
+        <v>523.905198566168</v>
       </c>
       <c r="G3" t="n">
-        <v>548.44189690301</v>
+        <v>548.0613471373213</v>
       </c>
       <c r="H3" t="n">
-        <v>609.2052264934215</v>
+        <v>608.9030555241183</v>
       </c>
       <c r="I3" t="n">
-        <v>346.4072734640678</v>
+        <v>346.7312342093776</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23705,28 +23705,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>235.1216554166051</v>
+        <v>235.6985380198108</v>
       </c>
       <c r="S3" t="n">
-        <v>483.5002940856804</v>
+        <v>483.4838161445766</v>
       </c>
       <c r="T3" t="n">
-        <v>727.2515106360167</v>
+        <v>726.8975299300257</v>
       </c>
       <c r="U3" t="n">
-        <v>789</v>
+        <v>793.1318481554714</v>
       </c>
       <c r="V3" t="n">
-        <v>788.7078867717157</v>
+        <v>788.2863915745072</v>
       </c>
       <c r="W3" t="n">
-        <v>771.524164036297</v>
+        <v>771.0695636634872</v>
       </c>
       <c r="X3" t="n">
-        <v>675.4238557881962</v>
+        <v>674.9711879341321</v>
       </c>
       <c r="Y3" t="n">
-        <v>631.5508133819358</v>
+        <v>631.1256978969769</v>
       </c>
     </row>
     <row r="4">
@@ -23736,31 +23736,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>737.3204382134741</v>
+        <v>736.9363576720798</v>
       </c>
       <c r="C4" t="n">
-        <v>696.5881007455363</v>
+        <v>696.2287641529327</v>
       </c>
       <c r="D4" t="n">
-        <v>674.3412379612031</v>
+        <v>673.9631896931095</v>
       </c>
       <c r="E4" t="n">
-        <v>641.2507668233993</v>
+        <v>640.8786514442552</v>
       </c>
       <c r="F4" t="n">
-        <v>637.4009440934956</v>
+        <v>637.0404646751012</v>
       </c>
       <c r="G4" t="n">
-        <v>652.9097698053923</v>
+        <v>652.5905316921983</v>
       </c>
       <c r="H4" t="n">
-        <v>660.9207753695249</v>
+        <v>660.8026940618669</v>
       </c>
       <c r="I4" t="n">
-        <v>360.1525010149367</v>
+        <v>360.7497339691134</v>
       </c>
       <c r="J4" t="n">
-        <v>47.74164324777212</v>
+        <v>49.09508269628168</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -23781,31 +23781,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>253.4067531368835</v>
+        <v>254.3115332457322</v>
       </c>
       <c r="R4" t="n">
-        <v>556.9331267624116</v>
+        <v>557.1076651138641</v>
       </c>
       <c r="S4" t="n">
-        <v>684.8364784139557</v>
+        <v>684.6929068721058</v>
       </c>
       <c r="T4" t="n">
-        <v>789</v>
+        <v>788.8929947841938</v>
       </c>
       <c r="U4" t="n">
-        <v>789</v>
+        <v>821.7218189600178</v>
       </c>
       <c r="V4" t="n">
-        <v>789</v>
+        <v>832.4799066159702</v>
       </c>
       <c r="W4" t="n">
-        <v>789</v>
+        <v>819.7017650566478</v>
       </c>
       <c r="X4" t="n">
-        <v>740.5990865622442</v>
+        <v>740.3403272746028</v>
       </c>
       <c r="Y4" t="n">
-        <v>737.4807598536958</v>
+        <v>737.1583717631191</v>
       </c>
     </row>
     <row r="5">
@@ -23815,7 +23815,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>789</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C5" t="n">
         <v>780.3257817577396</v>
@@ -23869,19 +23869,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T5" t="n">
-        <v>789</v>
+        <v>872.9155015748137</v>
       </c>
       <c r="U5" t="n">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="V5" t="n">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="W5" t="n">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="X5" t="n">
-        <v>789</v>
+        <v>835.0386250141482</v>
       </c>
       <c r="Y5" t="n">
         <v>749.1408669101759</v>
@@ -23951,7 +23951,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U6" t="n">
-        <v>789</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V6" t="n">
         <v>788.7078867717157</v>
@@ -24027,16 +24027,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T7" t="n">
-        <v>789</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U7" t="n">
-        <v>789</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V7" t="n">
-        <v>789</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W7" t="n">
-        <v>789</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X7" t="n">
         <v>740.5990865622442</v>
@@ -24052,7 +24052,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>789</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C8" t="n">
         <v>780.3257817577396</v>
@@ -24106,19 +24106,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T8" t="n">
-        <v>789</v>
+        <v>872.9155015748137</v>
       </c>
       <c r="U8" t="n">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="V8" t="n">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="W8" t="n">
-        <v>789</v>
+        <v>874</v>
       </c>
       <c r="X8" t="n">
-        <v>789</v>
+        <v>835.0386250141482</v>
       </c>
       <c r="Y8" t="n">
         <v>749.1408669101759</v>
@@ -24188,7 +24188,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U9" t="n">
-        <v>789</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V9" t="n">
         <v>788.7078867717157</v>
@@ -24264,16 +24264,16 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T10" t="n">
-        <v>789</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U10" t="n">
-        <v>789</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V10" t="n">
-        <v>789</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W10" t="n">
-        <v>789</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X10" t="n">
         <v>740.5990865622442</v>
@@ -24289,10 +24289,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="C11" t="n">
-        <v>738</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D11" t="n">
         <v>720.9289116565008</v>
@@ -24307,7 +24307,7 @@
         <v>709.326661363265</v>
       </c>
       <c r="H11" t="n">
-        <v>738</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I11" t="n">
         <v>487.6029664634913</v>
@@ -24343,22 +24343,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T11" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="U11" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="V11" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="W11" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="X11" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="Y11" t="n">
-        <v>738</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="12">
@@ -24425,13 +24425,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U12" t="n">
-        <v>738</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V12" t="n">
-        <v>738</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W12" t="n">
-        <v>738</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X12" t="n">
         <v>675.4238557881962</v>
@@ -24501,19 +24501,19 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T13" t="n">
-        <v>738</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U13" t="n">
-        <v>738</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V13" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="W13" t="n">
-        <v>738</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X13" t="n">
-        <v>738</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y13" t="n">
         <v>737.4807598536958</v>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="C14" t="n">
-        <v>738</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D14" t="n">
         <v>720.9289116565008</v>
@@ -24544,7 +24544,7 @@
         <v>709.326661363265</v>
       </c>
       <c r="H14" t="n">
-        <v>738</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I14" t="n">
         <v>487.6029664634913</v>
@@ -24580,22 +24580,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T14" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="U14" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="V14" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="W14" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="X14" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="Y14" t="n">
-        <v>738</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="15">
@@ -24662,13 +24662,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U15" t="n">
-        <v>738</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V15" t="n">
-        <v>738</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W15" t="n">
-        <v>738</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X15" t="n">
         <v>675.4238557881962</v>
@@ -24738,19 +24738,19 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T16" t="n">
-        <v>738</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U16" t="n">
-        <v>738</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V16" t="n">
-        <v>738</v>
+        <v>823</v>
       </c>
       <c r="W16" t="n">
-        <v>738</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X16" t="n">
-        <v>738</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y16" t="n">
         <v>737.4807598536958</v>
@@ -24763,7 +24763,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="C17" t="n">
         <v>780.3257817577396</v>
@@ -24817,19 +24817,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T17" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="U17" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="V17" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="W17" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="X17" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="Y17" t="n">
         <v>749.1408669101759</v>
@@ -24899,7 +24899,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U18" t="n">
-        <v>790</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V18" t="n">
         <v>788.7078867717157</v>
@@ -24978,13 +24978,13 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U19" t="n">
-        <v>790</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V19" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="W19" t="n">
-        <v>790</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X19" t="n">
         <v>740.5990865622442</v>
@@ -25000,31 +25000,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>790</v>
+        <v>822.0000000001166</v>
       </c>
       <c r="C20" t="n">
-        <v>780.3257817577396</v>
+        <v>779.8280867991992</v>
       </c>
       <c r="D20" t="n">
-        <v>720.9289116565008</v>
+        <v>720.4868345845542</v>
       </c>
       <c r="E20" t="n">
-        <v>683.4770677455434</v>
+        <v>683.039290318849</v>
       </c>
       <c r="F20" t="n">
-        <v>678.54014870429</v>
+        <v>678.1049324572348</v>
       </c>
       <c r="G20" t="n">
-        <v>709.326661363265</v>
+        <v>708.8849757692576</v>
       </c>
       <c r="H20" t="n">
-        <v>751.407264750532</v>
+        <v>751.0763164215535</v>
       </c>
       <c r="I20" t="n">
-        <v>487.6029664634913</v>
+        <v>487.8917779064525</v>
       </c>
       <c r="J20" t="n">
-        <v>129.1745238424885</v>
+        <v>130.3111385621903</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -25048,28 +25048,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>95.76639008741824</v>
+        <v>96.86780738497157</v>
       </c>
       <c r="S20" t="n">
-        <v>495.4014928788971</v>
+        <v>495.5585690346961</v>
       </c>
       <c r="T20" t="n">
-        <v>790</v>
+        <v>822.0000000001166</v>
       </c>
       <c r="U20" t="n">
-        <v>790</v>
+        <v>822.0000000001166</v>
       </c>
       <c r="V20" t="n">
-        <v>790</v>
+        <v>822.0000000001166</v>
       </c>
       <c r="W20" t="n">
-        <v>790</v>
+        <v>822.0000000001166</v>
       </c>
       <c r="X20" t="n">
-        <v>790</v>
+        <v>822.0000000001166</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.1408669101759</v>
+        <v>748.6130240308346</v>
       </c>
     </row>
     <row r="21">
@@ -25079,28 +25079,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>643.9170916081518</v>
+        <v>643.463870945406</v>
       </c>
       <c r="C21" t="n">
-        <v>601.2969412516379</v>
+        <v>600.868425476066</v>
       </c>
       <c r="D21" t="n">
-        <v>561.4275748088519</v>
+        <v>561.0175121388318</v>
       </c>
       <c r="E21" t="n">
-        <v>527.4264172844714</v>
+        <v>527.0214708815522</v>
       </c>
       <c r="F21" t="n">
-        <v>524.3030463988928</v>
+        <v>523.905198566168</v>
       </c>
       <c r="G21" t="n">
-        <v>548.44189690301</v>
+        <v>548.0613471373213</v>
       </c>
       <c r="H21" t="n">
-        <v>609.2052264934215</v>
+        <v>608.9030555241183</v>
       </c>
       <c r="I21" t="n">
-        <v>346.4072734640678</v>
+        <v>346.7312342093775</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -25127,28 +25127,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>235.1216554166051</v>
+        <v>235.6985380198108</v>
       </c>
       <c r="S21" t="n">
-        <v>483.5002940856804</v>
+        <v>483.4838161445766</v>
       </c>
       <c r="T21" t="n">
-        <v>727.2515106360167</v>
+        <v>726.8975299300257</v>
       </c>
       <c r="U21" t="n">
-        <v>790</v>
+        <v>793.1318481554714</v>
       </c>
       <c r="V21" t="n">
-        <v>788.7078867717157</v>
+        <v>788.2863915745072</v>
       </c>
       <c r="W21" t="n">
-        <v>771.524164036297</v>
+        <v>771.0695636634872</v>
       </c>
       <c r="X21" t="n">
-        <v>675.4238557881962</v>
+        <v>674.9711879341321</v>
       </c>
       <c r="Y21" t="n">
-        <v>631.5508133819358</v>
+        <v>631.1256978969769</v>
       </c>
     </row>
     <row r="22">
@@ -25158,31 +25158,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>737.3204382134741</v>
+        <v>736.9363576720798</v>
       </c>
       <c r="C22" t="n">
-        <v>696.5881007455363</v>
+        <v>696.2287641529327</v>
       </c>
       <c r="D22" t="n">
-        <v>674.3412379612031</v>
+        <v>673.9631896931095</v>
       </c>
       <c r="E22" t="n">
-        <v>641.2507668233993</v>
+        <v>640.8786514442552</v>
       </c>
       <c r="F22" t="n">
-        <v>637.4009440934956</v>
+        <v>637.0404646751012</v>
       </c>
       <c r="G22" t="n">
-        <v>652.9097698053923</v>
+        <v>652.5905316921983</v>
       </c>
       <c r="H22" t="n">
-        <v>660.9207753695249</v>
+        <v>660.8026940618669</v>
       </c>
       <c r="I22" t="n">
-        <v>360.1525010149367</v>
+        <v>360.7497339691134</v>
       </c>
       <c r="J22" t="n">
-        <v>47.74164324777212</v>
+        <v>49.09508269628168</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -25203,31 +25203,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>253.4067531368835</v>
+        <v>254.3115332457322</v>
       </c>
       <c r="R22" t="n">
-        <v>556.9331267624116</v>
+        <v>557.1076651138641</v>
       </c>
       <c r="S22" t="n">
-        <v>684.8364784139557</v>
+        <v>684.6929068721058</v>
       </c>
       <c r="T22" t="n">
-        <v>789.0540608315382</v>
+        <v>788.8929947841938</v>
       </c>
       <c r="U22" t="n">
-        <v>790</v>
+        <v>821.7218189600178</v>
       </c>
       <c r="V22" t="n">
-        <v>790</v>
+        <v>822.0000000001166</v>
       </c>
       <c r="W22" t="n">
-        <v>790</v>
+        <v>819.7017650566478</v>
       </c>
       <c r="X22" t="n">
-        <v>740.5990865622442</v>
+        <v>740.3403272746028</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4807598536958</v>
+        <v>737.1583717631191</v>
       </c>
     </row>
     <row r="23">
@@ -25237,7 +25237,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="C23" t="n">
         <v>780.3257817577396</v>
@@ -25291,19 +25291,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T23" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="U23" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="V23" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="W23" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="X23" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="Y23" t="n">
         <v>749.1408669101759</v>
@@ -25373,7 +25373,7 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U24" t="n">
-        <v>790</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V24" t="n">
         <v>788.7078867717157</v>
@@ -25452,13 +25452,13 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U25" t="n">
-        <v>790</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V25" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="W25" t="n">
-        <v>790</v>
+        <v>819.9272246581436</v>
       </c>
       <c r="X25" t="n">
         <v>740.5990865622442</v>
@@ -25474,10 +25474,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="C26" t="n">
-        <v>728</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D26" t="n">
         <v>720.9289116565008</v>
@@ -25492,7 +25492,7 @@
         <v>709.326661363265</v>
       </c>
       <c r="H26" t="n">
-        <v>728</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I26" t="n">
         <v>487.6029664634913</v>
@@ -25528,22 +25528,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T26" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="U26" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="V26" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="W26" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="X26" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="Y26" t="n">
-        <v>728</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="27">
@@ -25610,13 +25610,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U27" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="V27" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="W27" t="n">
-        <v>728</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X27" t="n">
         <v>675.4238557881962</v>
@@ -25632,7 +25632,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C28" t="n">
         <v>696.5881007455363</v>
@@ -25686,22 +25686,22 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T28" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="U28" t="n">
-        <v>728</v>
+        <v>787.0000000000576</v>
       </c>
       <c r="V28" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="W28" t="n">
-        <v>728</v>
+        <v>786.9999999999424</v>
       </c>
       <c r="X28" t="n">
-        <v>728</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y28" t="n">
-        <v>728</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
     <row r="29">
@@ -25711,10 +25711,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="C29" t="n">
-        <v>728</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D29" t="n">
         <v>720.9289116565008</v>
@@ -25729,7 +25729,7 @@
         <v>709.326661363265</v>
       </c>
       <c r="H29" t="n">
-        <v>728</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I29" t="n">
         <v>487.6029664634913</v>
@@ -25765,22 +25765,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T29" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="U29" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="V29" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="W29" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="X29" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="Y29" t="n">
-        <v>728</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="30">
@@ -25847,13 +25847,13 @@
         <v>727.2515106360167</v>
       </c>
       <c r="U30" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="V30" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="W30" t="n">
-        <v>728</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X30" t="n">
         <v>675.4238557881962</v>
@@ -25869,7 +25869,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C31" t="n">
         <v>696.5881007455363</v>
@@ -25923,22 +25923,22 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T31" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="U31" t="n">
-        <v>728</v>
+        <v>787.0000000000288</v>
       </c>
       <c r="V31" t="n">
-        <v>728</v>
+        <v>787</v>
       </c>
       <c r="W31" t="n">
-        <v>728</v>
+        <v>786.9999999999712</v>
       </c>
       <c r="X31" t="n">
-        <v>728</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y31" t="n">
-        <v>728</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
     <row r="32">
@@ -25948,7 +25948,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>820</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C32" t="n">
         <v>780.3257817577396</v>
@@ -26002,19 +26002,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T32" t="n">
-        <v>820</v>
+        <v>833.000000000073</v>
       </c>
       <c r="U32" t="n">
-        <v>820</v>
+        <v>833.000000000073</v>
       </c>
       <c r="V32" t="n">
-        <v>820</v>
+        <v>833.000000000073</v>
       </c>
       <c r="W32" t="n">
-        <v>820</v>
+        <v>833.000000000073</v>
       </c>
       <c r="X32" t="n">
-        <v>820</v>
+        <v>833.000000000073</v>
       </c>
       <c r="Y32" t="n">
         <v>749.1408669101759</v>
@@ -26163,10 +26163,10 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U34" t="n">
-        <v>820</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V34" t="n">
-        <v>820</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W34" t="n">
         <v>819.9272246581436</v>
@@ -26185,7 +26185,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>820</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C35" t="n">
         <v>780.3257817577396</v>
@@ -26239,19 +26239,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T35" t="n">
-        <v>820</v>
+        <v>833.0000000000584</v>
       </c>
       <c r="U35" t="n">
-        <v>820</v>
+        <v>833.0000000000584</v>
       </c>
       <c r="V35" t="n">
-        <v>820</v>
+        <v>833.0000000000584</v>
       </c>
       <c r="W35" t="n">
-        <v>820</v>
+        <v>833.0000000000584</v>
       </c>
       <c r="X35" t="n">
-        <v>820</v>
+        <v>833.0000000000584</v>
       </c>
       <c r="Y35" t="n">
         <v>749.1408669101759</v>
@@ -26400,10 +26400,10 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U37" t="n">
-        <v>820</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V37" t="n">
-        <v>820</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W37" t="n">
         <v>819.9272246581436</v>
@@ -26422,7 +26422,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>820</v>
+        <v>826.1037450028298</v>
       </c>
       <c r="C38" t="n">
         <v>780.3257817577396</v>
@@ -26476,19 +26476,19 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T38" t="n">
-        <v>820</v>
+        <v>833.0000000001166</v>
       </c>
       <c r="U38" t="n">
-        <v>820</v>
+        <v>833.0000000001166</v>
       </c>
       <c r="V38" t="n">
-        <v>820</v>
+        <v>833.0000000001166</v>
       </c>
       <c r="W38" t="n">
-        <v>820</v>
+        <v>833.0000000001166</v>
       </c>
       <c r="X38" t="n">
-        <v>820</v>
+        <v>833.0000000001166</v>
       </c>
       <c r="Y38" t="n">
         <v>749.1408669101759</v>
@@ -26637,10 +26637,10 @@
         <v>789.0540608315382</v>
       </c>
       <c r="U40" t="n">
-        <v>820</v>
+        <v>821.8838959963732</v>
       </c>
       <c r="V40" t="n">
-        <v>820</v>
+        <v>832.6635966082617</v>
       </c>
       <c r="W40" t="n">
         <v>819.9272246581436</v>
@@ -26659,13 +26659,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>685</v>
+        <v>794.0000000001312</v>
       </c>
       <c r="C41" t="n">
-        <v>685</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D41" t="n">
-        <v>685</v>
+        <v>720.9289116565008</v>
       </c>
       <c r="E41" t="n">
         <v>683.4770677455434</v>
@@ -26674,10 +26674,10 @@
         <v>678.54014870429</v>
       </c>
       <c r="G41" t="n">
-        <v>685</v>
+        <v>709.326661363265</v>
       </c>
       <c r="H41" t="n">
-        <v>685</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I41" t="n">
         <v>487.6029664634913</v>
@@ -26713,22 +26713,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T41" t="n">
-        <v>685</v>
+        <v>794.0000000001312</v>
       </c>
       <c r="U41" t="n">
-        <v>685</v>
+        <v>794.0000000001312</v>
       </c>
       <c r="V41" t="n">
-        <v>685</v>
+        <v>794.0000000001312</v>
       </c>
       <c r="W41" t="n">
-        <v>685</v>
+        <v>794.0000000001312</v>
       </c>
       <c r="X41" t="n">
-        <v>685</v>
+        <v>794.0000000001312</v>
       </c>
       <c r="Y41" t="n">
-        <v>685</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="42">
@@ -26792,16 +26792,16 @@
         <v>483.5002940856804</v>
       </c>
       <c r="T42" t="n">
-        <v>685</v>
+        <v>727.2515106360167</v>
       </c>
       <c r="U42" t="n">
-        <v>685</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V42" t="n">
-        <v>685</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W42" t="n">
-        <v>685</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X42" t="n">
         <v>675.4238557881962</v>
@@ -26817,10 +26817,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>685</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C43" t="n">
-        <v>685</v>
+        <v>696.5881007455363</v>
       </c>
       <c r="D43" t="n">
         <v>674.3412379612031</v>
@@ -26871,22 +26871,22 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T43" t="n">
-        <v>685</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U43" t="n">
-        <v>685</v>
+        <v>794.0000000001312</v>
       </c>
       <c r="V43" t="n">
-        <v>685</v>
+        <v>794.0000000001312</v>
       </c>
       <c r="W43" t="n">
-        <v>685</v>
+        <v>794.0000000001312</v>
       </c>
       <c r="X43" t="n">
-        <v>685</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y43" t="n">
-        <v>685</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
     <row r="44">
@@ -26896,13 +26896,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>685</v>
+        <v>794.0000000000584</v>
       </c>
       <c r="C44" t="n">
-        <v>685</v>
+        <v>780.3257817577396</v>
       </c>
       <c r="D44" t="n">
-        <v>685</v>
+        <v>720.9289116565008</v>
       </c>
       <c r="E44" t="n">
         <v>683.4770677455434</v>
@@ -26911,10 +26911,10 @@
         <v>678.54014870429</v>
       </c>
       <c r="G44" t="n">
-        <v>685</v>
+        <v>709.326661363265</v>
       </c>
       <c r="H44" t="n">
-        <v>685</v>
+        <v>751.407264750532</v>
       </c>
       <c r="I44" t="n">
         <v>487.6029664634913</v>
@@ -26950,22 +26950,22 @@
         <v>495.4014928788971</v>
       </c>
       <c r="T44" t="n">
-        <v>685</v>
+        <v>794.0000000000584</v>
       </c>
       <c r="U44" t="n">
-        <v>685</v>
+        <v>794.0000000000584</v>
       </c>
       <c r="V44" t="n">
-        <v>685</v>
+        <v>794.0000000000584</v>
       </c>
       <c r="W44" t="n">
-        <v>685</v>
+        <v>794.0000000000584</v>
       </c>
       <c r="X44" t="n">
-        <v>685</v>
+        <v>794.0000000000584</v>
       </c>
       <c r="Y44" t="n">
-        <v>685</v>
+        <v>749.1408669101759</v>
       </c>
     </row>
     <row r="45">
@@ -27029,16 +27029,16 @@
         <v>483.5002940856804</v>
       </c>
       <c r="T45" t="n">
-        <v>685</v>
+        <v>727.2515106360167</v>
       </c>
       <c r="U45" t="n">
-        <v>685</v>
+        <v>793.5643808391968</v>
       </c>
       <c r="V45" t="n">
-        <v>685</v>
+        <v>788.7078867717157</v>
       </c>
       <c r="W45" t="n">
-        <v>685</v>
+        <v>771.524164036297</v>
       </c>
       <c r="X45" t="n">
         <v>675.4238557881962</v>
@@ -27054,10 +27054,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>685</v>
+        <v>737.3204382134741</v>
       </c>
       <c r="C46" t="n">
-        <v>685</v>
+        <v>696.5881007455363</v>
       </c>
       <c r="D46" t="n">
         <v>674.3412379612031</v>
@@ -27108,22 +27108,22 @@
         <v>684.8364784139557</v>
       </c>
       <c r="T46" t="n">
-        <v>685</v>
+        <v>789.0540608315382</v>
       </c>
       <c r="U46" t="n">
-        <v>685</v>
+        <v>794.0000000000584</v>
       </c>
       <c r="V46" t="n">
-        <v>685</v>
+        <v>794.0000000000584</v>
       </c>
       <c r="W46" t="n">
-        <v>685</v>
+        <v>794.0000000000584</v>
       </c>
       <c r="X46" t="n">
-        <v>685</v>
+        <v>740.5990865622442</v>
       </c>
       <c r="Y46" t="n">
-        <v>685</v>
+        <v>737.4807598536958</v>
       </c>
     </row>
   </sheetData>
@@ -30901,7 +30901,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -30919,7 +30919,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.894473798929074</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -31150,10 +31150,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>19.00000000003643</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.097047321334318</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -31387,10 +31387,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>19.00000000002915</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1.097047321341595</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -31612,13 +31612,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>70.00000000002915</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>70.00000000002915</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>16.06581894972319</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>70.0000000000437</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>70.0000000000437</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>16.0658189496941</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -32086,13 +32086,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>70.0000000000437</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>70.0000000000437</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>16.0658189496941</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -32338,10 +32338,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>17.25568800455262</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -32560,13 +32560,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>16.06581894969408</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -32803,7 +32803,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -32812,10 +32812,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>54.25865641525881</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -33034,13 +33034,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>54.25865641520062</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -33280,10 +33280,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>106.0000000000728</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>19.45669743127284</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -33517,10 +33517,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>106.0000000000728</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>19.45669743131739</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -33754,10 +33754,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>87.00000000005822</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>38.45669743115381</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -33985,13 +33985,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>46.83227135205036</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>99.00000000007279</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>99.00000000007279</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -34222,13 +34222,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>46.83227135230216</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>99.00000000005824</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>99.00000000005824</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -34579,10 +34579,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>18.62658489063436</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.852088879710294</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -34816,10 +34816,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>18.25165683802288</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.445459241652586</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -35053,10 +35053,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>18.25165683802288</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.445459241652586</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -35290,13 +35290,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>69.25165683802288</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>52.44545924165259</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>31.26299307300535</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -35527,13 +35527,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>69.25165683802288</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>52.44545924165259</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>31.26299307300535</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -35764,13 +35764,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>69.25165683802288</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>52.44545924165259</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>31.26299307300535</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -36001,13 +36001,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>69.62658489054716</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>52.8520888796231</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>31.64762604317738</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -36238,13 +36238,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>69.25165683802288</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>52.44545924165259</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>31.26299307300535</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -36475,13 +36475,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>105.2516568380229</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>88.44545924165259</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>67.26299307300535</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -36712,13 +36712,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>105.2516568380229</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>88.44545924165259</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>67.26299307300535</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -36949,13 +36949,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>59.25165683794989</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>42.4454592415796</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>21.26299307293236</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -37186,13 +37186,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>59.25165683796445</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>42.44545924159415</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>21.26299307294691</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -37423,13 +37423,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>59.25165683790624</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>42.44545924153594</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>21.2629930728887</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -37660,13 +37660,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>98.25165683789169</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>81.44545924152139</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>60.26299307287415</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -37897,13 +37897,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>98.25165683796445</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>81.44545924159415</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>60.26299307294691</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
